--- a/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
+++ b/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
@@ -394,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,10 +437,10 @@
         <v>29</v>
       </c>
       <c r="F2">
-        <v>0.4482206389619964</v>
+        <v>0.4529604389419829</v>
       </c>
       <c r="G2">
-        <v>0.4744987743216194</v>
+        <v>0.5753401078409786</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -460,10 +460,10 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>0.120769776985929</v>
+        <v>0.1177228730614828</v>
       </c>
       <c r="G3">
-        <v>0.2133914065945986</v>
+        <v>0.2848734791496697</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -483,10 +483,10 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>0.05392769858394352</v>
+        <v>0.04884285606111181</v>
       </c>
       <c r="G4">
-        <v>0.1337547339382184</v>
+        <v>0.1829027603585654</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -506,10 +506,10 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>0.04492663651297382</v>
+        <v>0.03955750888195161</v>
       </c>
       <c r="G5">
-        <v>0.1204314655676566</v>
+        <v>0.1645731726633032</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -523,16 +523,16 @@
         <v>12316</v>
       </c>
       <c r="D6">
-        <v>48.5889</v>
+        <v>52.38890000000001</v>
       </c>
       <c r="E6" s="3">
         <v>41</v>
       </c>
       <c r="F6">
-        <v>0.07371911617506027</v>
+        <v>0.07770909347237369</v>
       </c>
       <c r="G6">
-        <v>0.1601712955579285</v>
+        <v>0.230950582805072</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -552,1275 +552,1298 @@
         <v>25</v>
       </c>
       <c r="F7">
-        <v>0.4465129360861875</v>
+        <v>0.4512234141186302</v>
       </c>
       <c r="G7">
-        <v>0.4733112161827278</v>
+        <v>0.5741248761263826</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
-        <v>12733</v>
+        <v>12666</v>
       </c>
       <c r="C8" s="2">
-        <v>12750</v>
+        <v>12671</v>
       </c>
       <c r="D8">
-        <v>332.4859999999999</v>
+        <v>19.13379999999997</v>
       </c>
       <c r="E8" s="3">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>0.5235213937847013</v>
+        <v>0.001006048557626691</v>
       </c>
       <c r="G8">
-        <v>0.5264547322673958</v>
+        <v>0.02641836371270655</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2">
-        <v>12912</v>
+        <v>12733</v>
       </c>
       <c r="C9" s="2">
-        <v>12945</v>
+        <v>12750</v>
       </c>
       <c r="D9">
-        <v>216.3121999999999</v>
+        <v>332.4859999999999</v>
       </c>
       <c r="E9" s="3">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>0.3745648047982461</v>
+        <v>0.5294090397474582</v>
       </c>
       <c r="G9">
-        <v>0.422573297744201</v>
+        <v>0.6276488308994788</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
-        <v>14692</v>
+        <v>12912</v>
       </c>
       <c r="C10" s="2">
-        <v>14698</v>
+        <v>12945</v>
       </c>
       <c r="D10">
-        <v>66.07299999999999</v>
+        <v>216.3121999999999</v>
       </c>
       <c r="E10" s="3">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>0.1108749356863682</v>
+        <v>0.377918467881278</v>
       </c>
       <c r="G10">
-        <v>0.2029957927523801</v>
+        <v>0.5213806288392363</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
-        <v>15653</v>
+        <v>14692</v>
       </c>
       <c r="C11" s="2">
-        <v>15660</v>
+        <v>14698</v>
       </c>
       <c r="D11">
-        <v>41.86799999999998</v>
+        <v>66.07299999999999</v>
       </c>
       <c r="E11" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>0.0590267289371721</v>
+        <v>0.1075346739753989</v>
       </c>
       <c r="G11">
-        <v>0.1408941099812947</v>
+        <v>0.2721042111986424</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
-        <v>15713</v>
+        <v>15653</v>
       </c>
       <c r="C12" s="2">
-        <v>15724</v>
+        <v>15660</v>
       </c>
       <c r="D12">
-        <v>31.38399999999999</v>
+        <v>41.86799999999998</v>
       </c>
       <c r="E12" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>0.03564124664008766</v>
+        <v>0.05410191626796727</v>
       </c>
       <c r="G12">
-        <v>0.1054607685001308</v>
+        <v>0.1925257988762217</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2">
-        <v>15806</v>
+        <v>15713</v>
       </c>
       <c r="C13" s="2">
-        <v>15811</v>
+        <v>15724</v>
       </c>
       <c r="D13">
-        <v>22.571</v>
+        <v>31.38399999999999</v>
       </c>
       <c r="E13" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>0.01553404668422644</v>
+        <v>0.02997647482037862</v>
       </c>
       <c r="G13">
-        <v>0.0656258276119713</v>
+        <v>0.1432606226521859</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2">
-        <v>15835</v>
+        <v>15806</v>
       </c>
       <c r="C14" s="2">
-        <v>15848</v>
+        <v>15811</v>
       </c>
       <c r="D14">
-        <v>112.1524</v>
+        <v>22.571</v>
       </c>
       <c r="E14" s="3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>0.2018141808365812</v>
+        <v>0.009220893268835482</v>
       </c>
       <c r="G14">
-        <v>0.289049360180847</v>
+        <v>0.07957250513004152</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2">
-        <v>16224</v>
+        <v>15835</v>
       </c>
       <c r="C15" s="2">
-        <v>16313</v>
+        <v>15848</v>
       </c>
       <c r="D15">
-        <v>1241.5981</v>
+        <v>112.1524</v>
       </c>
       <c r="E15" s="3">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="F15">
-        <v>0.9433038680638326</v>
+        <v>0.2010550213662789</v>
       </c>
       <c r="G15">
-        <v>0.8637567154464959</v>
+        <v>0.374426565246658</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2">
-        <v>16337</v>
+        <v>16224</v>
       </c>
       <c r="C16" s="2">
-        <v>16383</v>
+        <v>16313</v>
       </c>
       <c r="D16">
-        <v>752.0580999999996</v>
+        <v>1242.6881</v>
       </c>
       <c r="E16" s="3">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F16">
-        <v>0.8216085108107501</v>
+        <v>0.9471514783503885</v>
       </c>
       <c r="G16">
-        <v>0.7432144387471261</v>
+        <v>0.9213306635642655</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>16440</v>
+        <v>16337</v>
       </c>
       <c r="C17" s="2">
-        <v>16485</v>
+        <v>16383</v>
       </c>
       <c r="D17">
-        <v>837.2021999999999</v>
+        <v>730.4280999999996</v>
       </c>
       <c r="E17" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17">
-        <v>0.8538530367712394</v>
+        <v>0.8190860946412644</v>
       </c>
       <c r="G17">
-        <v>0.7709439975651277</v>
+        <v>0.8203442147426415</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
-        <v>17893</v>
+        <v>16440</v>
       </c>
       <c r="C18" s="2">
-        <v>17906</v>
+        <v>16485</v>
       </c>
       <c r="D18">
-        <v>204.8097</v>
+        <v>837.2021999999999</v>
       </c>
       <c r="E18" s="3">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F18">
-        <v>0.3574907497963437</v>
+        <v>0.8600171293204313</v>
       </c>
       <c r="G18">
-        <v>0.4102659839436698</v>
+        <v>0.8497593115723698</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2">
-        <v>17926</v>
+        <v>17893</v>
       </c>
       <c r="C19" s="2">
-        <v>17962</v>
+        <v>17906</v>
       </c>
       <c r="D19">
-        <v>804.2808999999997</v>
+        <v>204.8097</v>
       </c>
       <c r="E19" s="3">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>0.842141501266091</v>
+        <v>0.3604892821217764</v>
       </c>
       <c r="G19">
-        <v>0.7606581842317413</v>
+        <v>0.5083413410509233</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2">
-        <v>18201</v>
+        <v>17926</v>
       </c>
       <c r="C20" s="2">
-        <v>18260</v>
+        <v>17962</v>
       </c>
       <c r="D20">
-        <v>370.9396999999999</v>
+        <v>804.2808999999997</v>
       </c>
       <c r="E20" s="3">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F20">
-        <v>0.5645490413184637</v>
+        <v>0.8484968805086426</v>
       </c>
       <c r="G20">
-        <v>0.5546473346244187</v>
+        <v>0.8413208553348218</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2">
-        <v>18853</v>
+        <v>18201</v>
       </c>
       <c r="C21" s="2">
-        <v>18915</v>
+        <v>18260</v>
       </c>
       <c r="D21">
-        <v>1377.7569</v>
+        <v>370.9396999999999</v>
       </c>
       <c r="E21" s="3">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F21">
-        <v>0.9587815678987917</v>
+        <v>0.5709331452572712</v>
       </c>
       <c r="G21">
-        <v>0.884909002514932</v>
+        <v>0.6553280378850799</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2">
-        <v>19050</v>
+        <v>18853</v>
       </c>
       <c r="C22" s="2">
-        <v>19071</v>
+        <v>18915</v>
       </c>
       <c r="D22">
-        <v>107.963</v>
+        <v>1363.2869</v>
       </c>
       <c r="E22" s="3">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F22">
-        <v>0.1939457493679151</v>
+        <v>0.9604439854788251</v>
       </c>
       <c r="G22">
-        <v>0.2822584712183672</v>
+        <v>0.9346513613764266</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2">
-        <v>19093</v>
+        <v>19050</v>
       </c>
       <c r="C23" s="2">
-        <v>19149</v>
+        <v>19071</v>
       </c>
       <c r="D23">
-        <v>834.8418999999997</v>
+        <v>107.963</v>
       </c>
       <c r="E23" s="3">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="F23">
-        <v>0.8530430869309424</v>
+        <v>0.1929737554386703</v>
       </c>
       <c r="G23">
-        <v>0.7702238519322977</v>
+        <v>0.3666017075283696</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2">
-        <v>20119</v>
+        <v>19093</v>
       </c>
       <c r="C24" s="2">
-        <v>20144</v>
+        <v>19149</v>
       </c>
       <c r="D24">
-        <v>51.249</v>
+        <v>834.8418999999997</v>
       </c>
       <c r="E24" s="3">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F24">
-        <v>0.07947072412426731</v>
+        <v>0.8592211580326078</v>
       </c>
       <c r="G24">
-        <v>0.1672849148161984</v>
+        <v>0.8491715539014487</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2">
-        <v>20778</v>
+        <v>20119</v>
       </c>
       <c r="C25" s="2">
-        <v>20796</v>
+        <v>20144</v>
       </c>
       <c r="D25">
-        <v>300.3779</v>
+        <v>51.249</v>
       </c>
       <c r="E25" s="3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F25">
-        <v>0.4863176747318962</v>
+        <v>0.0751800696806284</v>
       </c>
       <c r="G25">
-        <v>0.5008625505274135</v>
+        <v>0.2271351965703581</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2">
-        <v>21855</v>
+        <v>20778</v>
       </c>
       <c r="C26" s="2">
-        <v>21924</v>
+        <v>20796</v>
       </c>
       <c r="D26">
-        <v>938.6927999999998</v>
+        <v>300.3779</v>
       </c>
       <c r="E26" s="3">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="F26">
-        <v>0.8847655177473782</v>
+        <v>0.4916745529134886</v>
       </c>
       <c r="G26">
-        <v>0.7995894043827591</v>
+        <v>0.6020925612849669</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B27" s="2">
-        <v>21941</v>
+        <v>21855</v>
       </c>
       <c r="C27" s="2">
-        <v>21959</v>
+        <v>21924</v>
       </c>
       <c r="D27">
-        <v>87.87499999999996</v>
+        <v>938.6927999999998</v>
       </c>
       <c r="E27" s="3">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F27">
-        <v>0.1551257645716873</v>
+        <v>0.8903041747537608</v>
       </c>
       <c r="G27">
-        <v>0.2472097767294026</v>
+        <v>0.8727518760646145</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" s="2">
-        <v>23008</v>
+        <v>21941</v>
       </c>
       <c r="C28" s="2">
-        <v>23021</v>
+        <v>21959</v>
       </c>
       <c r="D28">
-        <v>123.4271</v>
+        <v>87.87499999999996</v>
       </c>
       <c r="E28" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F28">
-        <v>0.2226106383920583</v>
+        <v>0.1530741280505891</v>
       </c>
       <c r="G28">
-        <v>0.3065805231491364</v>
+        <v>0.3255814890873994</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B29" s="2">
-        <v>23173</v>
+        <v>23008</v>
       </c>
       <c r="C29" s="2">
-        <v>23281</v>
+        <v>23021</v>
       </c>
       <c r="D29">
-        <v>1702.3454</v>
+        <v>123.4271</v>
       </c>
       <c r="E29" s="3">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="F29">
-        <v>0.9807241975790428</v>
+        <v>0.2224040040683128</v>
       </c>
       <c r="G29">
-        <v>0.9223585387953226</v>
+        <v>0.3944548980319745</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="2">
-        <v>23399</v>
+        <v>23173</v>
       </c>
       <c r="C30" s="2">
-        <v>23409</v>
+        <v>23281</v>
       </c>
       <c r="D30">
-        <v>228.5457</v>
+        <v>1707.1654</v>
       </c>
       <c r="E30" s="3">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F30">
-        <v>0.3922263269972214</v>
+        <v>0.9826840921901179</v>
       </c>
       <c r="G30">
-        <v>0.4351800250019531</v>
+        <v>0.9610430158618556</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B31" s="2">
-        <v>24893</v>
+        <v>23399</v>
       </c>
       <c r="C31" s="2">
-        <v>24908</v>
+        <v>23409</v>
       </c>
       <c r="D31">
-        <v>449.3761</v>
+        <v>228.5457</v>
       </c>
       <c r="E31" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F31">
-        <v>0.6376101057567258</v>
+        <v>0.3959343508130627</v>
       </c>
       <c r="G31">
-        <v>0.6052850675143409</v>
+        <v>0.5346370607754438</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="2">
-        <v>24990</v>
+        <v>24893</v>
       </c>
       <c r="C32" s="2">
-        <v>24995</v>
+        <v>24908</v>
       </c>
       <c r="D32">
-        <v>32.39729999999999</v>
+        <v>449.3761</v>
       </c>
       <c r="E32" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F32">
-        <v>0.03792664550893772</v>
+        <v>0.6446203633925311</v>
       </c>
       <c r="G32">
-        <v>0.1092833121157502</v>
+        <v>0.7037741144752745</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2">
-        <v>25017</v>
+        <v>24990</v>
       </c>
       <c r="C33" s="2">
-        <v>25025</v>
+        <v>24995</v>
       </c>
       <c r="D33">
-        <v>76.91200000000001</v>
+        <v>32.39729999999999</v>
       </c>
       <c r="E33" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>0.1331568761738794</v>
+        <v>0.03233486307195499</v>
       </c>
       <c r="G33">
-        <v>0.2259565495468774</v>
+        <v>0.1487871533882759</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B34" s="2">
-        <v>25050</v>
+        <v>25017</v>
       </c>
       <c r="C34" s="2">
-        <v>25138</v>
+        <v>25025</v>
       </c>
       <c r="D34">
-        <v>927.2982999999996</v>
+        <v>76.91200000000001</v>
       </c>
       <c r="E34" s="3">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="F34">
-        <v>0.8816496093164389</v>
+        <v>0.1304730233462015</v>
       </c>
       <c r="G34">
-        <v>0.796586513085395</v>
+        <v>0.3001403048472961</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B35" s="2">
-        <v>25167</v>
+        <v>25050</v>
       </c>
       <c r="C35" s="2">
-        <v>25194</v>
+        <v>25138</v>
       </c>
       <c r="D35">
-        <v>280.9065999999999</v>
+        <v>908.3814999999996</v>
       </c>
       <c r="E35" s="3">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="F35">
-        <v>0.4623554038418851</v>
+        <v>0.8820185375218204</v>
       </c>
       <c r="G35">
-        <v>0.4843069914716994</v>
+        <v>0.8663269322577586</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B36" s="2">
-        <v>26254</v>
+        <v>25167</v>
       </c>
       <c r="C36" s="2">
-        <v>26284</v>
+        <v>25194</v>
       </c>
       <c r="D36">
-        <v>206.3999999999999</v>
+        <v>280.9065999999999</v>
       </c>
       <c r="E36" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F36">
-        <v>0.3598788390323559</v>
+        <v>0.4673325094602544</v>
       </c>
       <c r="G36">
-        <v>0.4119950680153623</v>
+        <v>0.5853433600845532</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B37" s="2">
-        <v>27318</v>
+        <v>26254</v>
       </c>
       <c r="C37" s="2">
-        <v>27327</v>
+        <v>26284</v>
       </c>
       <c r="D37">
-        <v>221.052</v>
+        <v>206.3999999999999</v>
       </c>
       <c r="E37" s="3">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F37">
-        <v>0.3814677596285003</v>
+        <v>0.3629277724943648</v>
       </c>
       <c r="G37">
-        <v>0.4275146812100293</v>
+        <v>0.510179126133073</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B38" s="2">
-        <v>28536</v>
+        <v>27318</v>
       </c>
       <c r="C38" s="2">
-        <v>28551</v>
+        <v>27327</v>
       </c>
       <c r="D38">
-        <v>206.9379999999999</v>
+        <v>212.602</v>
       </c>
       <c r="E38" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F38">
-        <v>0.3606847209203766</v>
+        <v>0.3723491121467837</v>
       </c>
       <c r="G38">
-        <v>0.4125779774921692</v>
+        <v>0.5172379668846484</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B39" s="2">
-        <v>28594</v>
+        <v>28536</v>
       </c>
       <c r="C39" s="2">
-        <v>28649</v>
+        <v>28551</v>
       </c>
       <c r="D39">
-        <v>417.0256</v>
+        <v>206.9379999999999</v>
       </c>
       <c r="E39" s="3">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F39">
-        <v>0.6090926865814696</v>
+        <v>0.3637506094791428</v>
       </c>
       <c r="G39">
-        <v>0.5854072843088688</v>
+        <v>0.510798247588736</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B40" s="2">
-        <v>28681</v>
+        <v>28594</v>
       </c>
       <c r="C40" s="2">
-        <v>28686</v>
+        <v>28649</v>
       </c>
       <c r="D40">
-        <v>21.61189999999998</v>
+        <v>417.0256</v>
       </c>
       <c r="E40" s="3">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F40">
-        <v>0.01332068288816021</v>
+        <v>0.6159005326374197</v>
       </c>
       <c r="G40">
-        <v>0.06012128747445227</v>
+        <v>0.6849537771807839</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B41" s="2">
-        <v>28876</v>
+        <v>28681</v>
       </c>
       <c r="C41" s="2">
-        <v>28962</v>
+        <v>28686</v>
       </c>
       <c r="D41">
-        <v>1618.9602</v>
+        <v>21.61189999999998</v>
       </c>
       <c r="E41" s="3">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="F41">
-        <v>0.9765680652594908</v>
+        <v>0.006935480698701546</v>
       </c>
       <c r="G41">
-        <v>0.9141825554339033</v>
+        <v>0.06904941484713564</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B42" s="2">
-        <v>29980</v>
+        <v>28876</v>
       </c>
       <c r="C42" s="2">
-        <v>29986</v>
+        <v>28962</v>
       </c>
       <c r="D42">
-        <v>115.9649999999999</v>
+        <v>1618.9602</v>
       </c>
       <c r="E42" s="3">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="F42">
-        <v>0.2089081387019086</v>
+        <v>0.9785972564190827</v>
       </c>
       <c r="G42">
-        <v>0.2950947629069823</v>
+        <v>0.9555788636323356</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B43" s="2">
-        <v>30732</v>
+        <v>29980</v>
       </c>
       <c r="C43" s="2">
-        <v>30743</v>
+        <v>29986</v>
       </c>
       <c r="D43">
-        <v>71.96299999999999</v>
+        <v>115.9649999999999</v>
       </c>
       <c r="E43" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F43">
-        <v>0.1230532514725127</v>
+        <v>0.2083390940188587</v>
       </c>
       <c r="G43">
-        <v>0.2157433163904942</v>
+        <v>0.3813607307987391</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B44" s="2">
-        <v>31078</v>
+        <v>30732</v>
       </c>
       <c r="C44" s="2">
-        <v>31085</v>
+        <v>30743</v>
       </c>
       <c r="D44">
-        <v>36.72899999999994</v>
+        <v>71.96299999999999</v>
       </c>
       <c r="E44" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F44">
-        <v>0.04763546418634531</v>
+        <v>0.1200736257837337</v>
       </c>
       <c r="G44">
-        <v>0.1245486713118373</v>
+        <v>0.2877446352867636</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B45" s="2">
-        <v>31276</v>
+        <v>31078</v>
       </c>
       <c r="C45" s="2">
-        <v>31291</v>
+        <v>31085</v>
       </c>
       <c r="D45">
-        <v>146.7185999999999</v>
+        <v>36.72899999999994</v>
       </c>
       <c r="E45" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F45">
-        <v>0.2638723832477855</v>
+        <v>0.04235213061894908</v>
       </c>
       <c r="G45">
-        <v>0.3398668408302253</v>
+        <v>0.1702939387087302</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B46" s="2">
-        <v>31316</v>
+        <v>31276</v>
       </c>
       <c r="C46" s="2">
-        <v>31429</v>
+        <v>31291</v>
       </c>
       <c r="D46">
-        <v>3114.383299999999</v>
+        <v>148.5185999999999</v>
       </c>
       <c r="E46" s="3">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="F46">
-        <v>0.9992935367647581</v>
+        <v>0.2678903362855715</v>
       </c>
       <c r="G46">
-        <v>0.9847982418885202</v>
+        <v>0.4345332776610734</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B47" s="2">
-        <v>31628</v>
+        <v>31316</v>
       </c>
       <c r="C47" s="2">
-        <v>31637</v>
+        <v>31429</v>
       </c>
       <c r="D47">
-        <v>54.21659999999999</v>
+        <v>3096.133299999999</v>
       </c>
       <c r="E47" s="3">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="F47">
-        <v>0.08584506668744148</v>
+        <v>0.9993843416042409</v>
       </c>
       <c r="G47">
-        <v>0.174931433446384</v>
+        <v>0.9946629956092238</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B48" s="2">
-        <v>31860</v>
+        <v>31628</v>
       </c>
       <c r="C48" s="2">
-        <v>31868</v>
+        <v>31637</v>
       </c>
       <c r="D48">
-        <v>30.21599999999999</v>
+        <v>54.21659999999999</v>
       </c>
       <c r="E48" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F48">
-        <v>0.03300020079329705</v>
+        <v>0.08174966912754421</v>
       </c>
       <c r="G48">
-        <v>0.1009129834566402</v>
+        <v>0.2369239425721376</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B49" s="2">
-        <v>32149</v>
+        <v>31860</v>
       </c>
       <c r="C49" s="2">
-        <v>32156</v>
+        <v>31868</v>
       </c>
       <c r="D49">
-        <v>149.3961</v>
+        <v>30.21599999999999</v>
       </c>
       <c r="E49" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49">
-        <v>0.2684730668116977</v>
+        <v>0.0272509006209394</v>
       </c>
       <c r="G49">
-        <v>0.3434741521755378</v>
+        <v>0.1365977647882361</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B50" s="2">
-        <v>32230</v>
+        <v>32149</v>
       </c>
       <c r="C50" s="2">
-        <v>32237</v>
+        <v>32156</v>
       </c>
       <c r="D50">
-        <v>70.05099999999996</v>
+        <v>149.3961</v>
       </c>
       <c r="E50" s="3">
         <v>8</v>
       </c>
       <c r="F50">
-        <v>0.119118347841074</v>
+        <v>0.2694319979413231</v>
       </c>
       <c r="G50">
-        <v>0.21167986048754</v>
+        <v>0.4358389751055225</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B51" s="2">
-        <v>32393</v>
+        <v>32230</v>
       </c>
       <c r="C51" s="2">
-        <v>32402</v>
+        <v>32237</v>
       </c>
       <c r="D51">
-        <v>50.43609999999994</v>
+        <v>70.05099999999996</v>
       </c>
       <c r="E51" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F51">
-        <v>0.07771688975634085</v>
+        <v>0.1160226889767841</v>
       </c>
       <c r="G51">
-        <v>0.165138393174261</v>
+        <v>0.2827800209852432</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B52" s="2">
-        <v>32472</v>
+        <v>32392</v>
       </c>
       <c r="C52" s="2">
-        <v>32496</v>
+        <v>32402</v>
       </c>
       <c r="D52">
-        <v>395.6708</v>
+        <v>52.03929999999994</v>
       </c>
       <c r="E52" s="3">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F52">
-        <v>0.5890492117346623</v>
+        <v>0.07693419428810643</v>
       </c>
       <c r="G52">
-        <v>0.5715332374061791</v>
+        <v>0.229788005894911</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B53" s="2">
-        <v>33254</v>
+        <v>32472</v>
       </c>
       <c r="C53" s="2">
-        <v>33264</v>
+        <v>32496</v>
       </c>
       <c r="D53">
-        <v>255.1968</v>
+        <v>395.6708</v>
       </c>
       <c r="E53" s="3">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F53">
-        <v>0.4289949183521968</v>
+        <v>0.5956819828599371</v>
       </c>
       <c r="G53">
-        <v>0.461092292511453</v>
+        <v>0.6716661624087845</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B54" s="2">
-        <v>33298</v>
+        <v>33254</v>
       </c>
       <c r="C54" s="2">
-        <v>33303</v>
+        <v>33264</v>
       </c>
       <c r="D54">
-        <v>30.512</v>
+        <v>255.1968</v>
       </c>
       <c r="E54" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F54">
-        <v>0.03367019038659436</v>
+        <v>0.4333966494207794</v>
       </c>
       <c r="G54">
-        <v>0.1020807082382753</v>
+        <v>0.5615702182915848</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B55" s="2">
-        <v>34619</v>
+        <v>33298</v>
       </c>
       <c r="C55" s="2">
-        <v>34626</v>
+        <v>33303</v>
       </c>
       <c r="D55">
-        <v>157.7559999999999</v>
+        <v>30.512</v>
       </c>
       <c r="E55" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F55">
-        <v>0.2826534556164326</v>
+        <v>0.02794235195962758</v>
       </c>
       <c r="G55">
-        <v>0.3544793947681888</v>
+        <v>0.1383182321490529</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B56" s="2">
-        <v>34956</v>
+        <v>34619</v>
       </c>
       <c r="C56" s="2">
-        <v>34961</v>
+        <v>34626</v>
       </c>
       <c r="D56">
-        <v>15.8848</v>
+        <v>153.136</v>
       </c>
       <c r="E56" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>0.2759662315472693</v>
       </c>
       <c r="G56">
-        <v>1.384231921899607e-10</v>
+        <v>0.4413390856627818</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B57" s="2">
-        <v>38053</v>
+        <v>34956</v>
       </c>
       <c r="C57" s="2">
-        <v>38058</v>
+        <v>34961</v>
       </c>
       <c r="D57">
-        <v>184.656</v>
+        <v>18.71480000000001</v>
       </c>
       <c r="E57" s="3">
         <v>6</v>
       </c>
       <c r="F57">
-        <v>0.3264435647010323</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.3875292307654203</v>
+        <v>2.64566463253627e-09</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B58" s="2">
-        <v>38399</v>
+        <v>38053</v>
       </c>
       <c r="C58" s="2">
-        <v>38433</v>
+        <v>38058</v>
       </c>
       <c r="D58">
-        <v>371.783</v>
+        <v>184.656</v>
       </c>
       <c r="E58" s="3">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F58">
-        <v>0.5654080411851008</v>
+        <v>0.3287657418673391</v>
       </c>
       <c r="G58">
-        <v>0.5552383885254273</v>
+        <v>0.4839948512369391</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B59" s="2">
-        <v>38846</v>
+        <v>38399</v>
       </c>
       <c r="C59" s="2">
-        <v>38961</v>
+        <v>38433</v>
       </c>
       <c r="D59">
-        <v>1784.594799999999</v>
+        <v>371.783</v>
       </c>
       <c r="E59" s="3">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="F59">
-        <v>0.9841009272926893</v>
+        <v>0.5718014870571416</v>
       </c>
       <c r="G59">
-        <v>0.929618463342568</v>
+        <v>0.655902974305608</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B60" s="2">
-        <v>39903</v>
+        <v>38846</v>
       </c>
       <c r="C60" s="2">
-        <v>39978</v>
+        <v>38961</v>
       </c>
       <c r="D60">
-        <v>477.1855999999999</v>
+        <v>1785.304799999999</v>
       </c>
       <c r="E60" s="3">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F60">
-        <v>0.6604559120148841</v>
+        <v>0.9856476605884852</v>
       </c>
       <c r="G60">
-        <v>0.6213675377238564</v>
+        <v>0.9652949603216171</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B61" s="2">
-        <v>42998</v>
+        <v>39903</v>
       </c>
       <c r="C61" s="2">
-        <v>43007</v>
+        <v>39978</v>
       </c>
       <c r="D61">
-        <v>59.02208333333333</v>
+        <v>477.1855999999999</v>
       </c>
       <c r="E61" s="3">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F61">
-        <v>0.09607366787684769</v>
+        <v>0.667586247680412</v>
       </c>
       <c r="G61">
-        <v>0.1867445489728367</v>
+        <v>0.7188108371943616</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B62" s="2">
+        <v>42998</v>
+      </c>
+      <c r="C62" s="2">
+        <v>43007</v>
+      </c>
+      <c r="D62">
+        <v>58.44208333333333</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>0.09102348794908463</v>
+      </c>
+      <c r="G62">
+        <v>0.2501177458392068</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>163</v>
+      </c>
+      <c r="B63" s="2">
         <v>43857</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C63" s="2">
         <v>43989</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>3469.4015</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E63" s="3">
         <v>133</v>
       </c>
-      <c r="F62">
-        <v>0.9996923434698294</v>
-      </c>
-      <c r="G62">
-        <v>0.989785392122957</v>
+      <c r="F63">
+        <v>0.9997488631918874</v>
+      </c>
+      <c r="G63">
+        <v>0.9968206718114339</v>
       </c>
     </row>
   </sheetData>

--- a/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
+++ b/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
@@ -437,10 +437,10 @@
         <v>29</v>
       </c>
       <c r="F2">
-        <v>0.4529604389419829</v>
+        <v>0.4535277971113451</v>
       </c>
       <c r="G2">
-        <v>0.5753401078409786</v>
+        <v>0.5734791886872768</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -460,10 +460,10 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>0.1177228730614828</v>
+        <v>0.1179129418069409</v>
       </c>
       <c r="G3">
-        <v>0.2848734791496697</v>
+        <v>0.2853087006858848</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -483,10 +483,10 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>0.04884285606111181</v>
+        <v>0.04892478570585143</v>
       </c>
       <c r="G4">
-        <v>0.1829027603585654</v>
+        <v>0.1838577298970954</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -506,10 +506,10 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>0.03955750888195161</v>
+        <v>0.03962418925596779</v>
       </c>
       <c r="G5">
-        <v>0.1645731726633032</v>
+        <v>0.1655820688594732</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -529,10 +529,10 @@
         <v>41</v>
       </c>
       <c r="F6">
-        <v>0.07770909347237369</v>
+        <v>0.07783742552582337</v>
       </c>
       <c r="G6">
-        <v>0.230950582805072</v>
+        <v>0.2317004224295548</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -552,10 +552,10 @@
         <v>25</v>
       </c>
       <c r="F7">
-        <v>0.4512234141186302</v>
+        <v>0.451789584164324</v>
       </c>
       <c r="G7">
-        <v>0.5741248761263826</v>
+        <v>0.5722734111526541</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -575,10 +575,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>0.001006048557626691</v>
+        <v>0.001007778286129896</v>
       </c>
       <c r="G8">
-        <v>0.02641836371270655</v>
+        <v>0.02701151003266683</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -598,10 +598,10 @@
         <v>18</v>
       </c>
       <c r="F9">
-        <v>0.5294090397474582</v>
+        <v>0.530018824508887</v>
       </c>
       <c r="G9">
-        <v>0.6276488308994788</v>
+        <v>0.6254003625127171</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -621,10 +621,10 @@
         <v>34</v>
       </c>
       <c r="F10">
-        <v>0.377918467881278</v>
+        <v>0.378426221083617</v>
       </c>
       <c r="G10">
-        <v>0.5213806288392363</v>
+        <v>0.5199529679004951</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -644,10 +644,10 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <v>0.1075346739753989</v>
+        <v>0.1077093146820041</v>
       </c>
       <c r="G11">
-        <v>0.2721042111986424</v>
+        <v>0.2726205171527307</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -667,10 +667,10 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <v>0.05410191626796727</v>
+        <v>0.05419241365276442</v>
       </c>
       <c r="G12">
-        <v>0.1925257988762217</v>
+        <v>0.1934466027215093</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -690,10 +690,10 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>0.02997647482037862</v>
+        <v>0.03002725819148154</v>
       </c>
       <c r="G13">
-        <v>0.1432606226521859</v>
+        <v>0.1443114674944783</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -713,10 +713,10 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <v>0.009220893268835482</v>
+        <v>0.009236681532334645</v>
       </c>
       <c r="G14">
-        <v>0.07957250513004152</v>
+        <v>0.08056955282316679</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -736,10 +736,10 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>0.2010550213662789</v>
+        <v>0.2013634510299247</v>
       </c>
       <c r="G15">
-        <v>0.374426565246658</v>
+        <v>0.3742106071737282</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -759,10 +759,10 @@
         <v>90</v>
       </c>
       <c r="F16">
-        <v>0.9471514783503885</v>
+        <v>0.9474181079555035</v>
       </c>
       <c r="G16">
-        <v>0.9213306635642655</v>
+        <v>0.9188942448901316</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -776,16 +776,16 @@
         <v>16383</v>
       </c>
       <c r="D17">
-        <v>730.4280999999996</v>
+        <v>723.2480999999997</v>
       </c>
       <c r="E17" s="3">
         <v>47</v>
       </c>
       <c r="F17">
-        <v>0.8190860946412644</v>
+        <v>0.81647365729994</v>
       </c>
       <c r="G17">
-        <v>0.8203442147426415</v>
+        <v>0.8151226585960806</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -805,10 +805,10 @@
         <v>46</v>
       </c>
       <c r="F18">
-        <v>0.8600171293204313</v>
+        <v>0.8604897950091843</v>
       </c>
       <c r="G18">
-        <v>0.8497593115723698</v>
+        <v>0.8467974070450799</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -828,10 +828,10 @@
         <v>14</v>
       </c>
       <c r="F19">
-        <v>0.3604892821217764</v>
+        <v>0.3609808876474872</v>
       </c>
       <c r="G19">
-        <v>0.5083413410509233</v>
+        <v>0.5070214096419517</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -851,10 +851,10 @@
         <v>37</v>
       </c>
       <c r="F20">
-        <v>0.8484968805086426</v>
+        <v>0.8489879025846336</v>
       </c>
       <c r="G20">
-        <v>0.8413208553348218</v>
+        <v>0.8383361418981622</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -874,10 +874,10 @@
         <v>60</v>
       </c>
       <c r="F21">
-        <v>0.5709331452572712</v>
+        <v>0.5715572111265292</v>
       </c>
       <c r="G21">
-        <v>0.6553280378850799</v>
+        <v>0.6528939738185671</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -891,16 +891,16 @@
         <v>18915</v>
       </c>
       <c r="D22">
-        <v>1363.2869</v>
+        <v>1360.6069</v>
       </c>
       <c r="E22" s="3">
         <v>63</v>
       </c>
       <c r="F22">
-        <v>0.9604439854788251</v>
+        <v>0.9604086507376332</v>
       </c>
       <c r="G22">
-        <v>0.9346513613764266</v>
+        <v>0.9321337477489449</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -920,10 +920,10 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>0.1929737554386703</v>
+        <v>0.1932713386849009</v>
       </c>
       <c r="G23">
-        <v>0.3666017075283696</v>
+        <v>0.3664471160611598</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -943,10 +943,10 @@
         <v>57</v>
       </c>
       <c r="F24">
-        <v>0.8592211580326078</v>
+        <v>0.859695142912881</v>
       </c>
       <c r="G24">
-        <v>0.8491715539014487</v>
+        <v>0.8462078521496383</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -966,10 +966,10 @@
         <v>26</v>
       </c>
       <c r="F25">
-        <v>0.0751800696806284</v>
+        <v>0.07530439785455131</v>
       </c>
       <c r="G25">
-        <v>0.2271351965703581</v>
+        <v>0.2279042478599306</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -989,10 +989,10 @@
         <v>19</v>
       </c>
       <c r="F26">
-        <v>0.4916745529134886</v>
+        <v>0.4922658701248102</v>
       </c>
       <c r="G26">
-        <v>0.6020925612849669</v>
+        <v>0.6000282800773625</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1012,10 +1012,10 @@
         <v>70</v>
       </c>
       <c r="F27">
-        <v>0.8903041747537608</v>
+        <v>0.8907204146539784</v>
       </c>
       <c r="G27">
-        <v>0.8727518760646145</v>
+        <v>0.8698872164845448</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1035,10 +1035,10 @@
         <v>19</v>
       </c>
       <c r="F28">
-        <v>0.1530741280505891</v>
+        <v>0.1533161423450484</v>
       </c>
       <c r="G28">
-        <v>0.3255814890873994</v>
+        <v>0.3257362617517343</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1058,10 +1058,10 @@
         <v>14</v>
       </c>
       <c r="F29">
-        <v>0.2224040040683128</v>
+        <v>0.2227404065507414</v>
       </c>
       <c r="G29">
-        <v>0.3944548980319745</v>
+        <v>0.3940791602247605</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1081,10 +1081,10 @@
         <v>109</v>
       </c>
       <c r="F30">
-        <v>0.9826840921901179</v>
+        <v>0.9828044906221561</v>
       </c>
       <c r="G30">
-        <v>0.9610430158618556</v>
+        <v>0.9593250466399729</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1104,10 +1104,10 @@
         <v>11</v>
       </c>
       <c r="F31">
-        <v>0.3959343508130627</v>
+        <v>0.3964579111565711</v>
       </c>
       <c r="G31">
-        <v>0.5346370607754438</v>
+        <v>0.5331008201872918</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1127,10 +1127,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>0.6446203633925311</v>
+        <v>0.6452522562276861</v>
       </c>
       <c r="G32">
-        <v>0.7037741144752745</v>
+        <v>0.7010601039367004</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1150,10 +1150,10 @@
         <v>6</v>
       </c>
       <c r="F33">
-        <v>0.03233486307195499</v>
+        <v>0.03238957470902752</v>
       </c>
       <c r="G33">
-        <v>0.1487871533882759</v>
+        <v>0.1498294540412411</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1173,10 +1173,10 @@
         <v>9</v>
       </c>
       <c r="F34">
-        <v>0.1304730233462015</v>
+        <v>0.1306821138771109</v>
       </c>
       <c r="G34">
-        <v>0.3001403048472961</v>
+        <v>0.3004740081692701</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1190,16 +1190,16 @@
         <v>25138</v>
       </c>
       <c r="D35">
-        <v>908.3814999999996</v>
+        <v>896.9914999999997</v>
       </c>
       <c r="E35" s="3">
         <v>89</v>
       </c>
       <c r="F35">
-        <v>0.8820185375218204</v>
+        <v>0.879185043365764</v>
       </c>
       <c r="G35">
-        <v>0.8663269322577586</v>
+        <v>0.8609106099723336</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1219,10 +1219,10 @@
         <v>28</v>
       </c>
       <c r="F36">
-        <v>0.4673325094602544</v>
+        <v>0.4679093310140311</v>
       </c>
       <c r="G36">
-        <v>0.5853433600845532</v>
+        <v>0.5834052931635964</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1242,10 +1242,10 @@
         <v>31</v>
       </c>
       <c r="F37">
-        <v>0.3629277724943648</v>
+        <v>0.3634216869426148</v>
       </c>
       <c r="G37">
-        <v>0.510179126133073</v>
+        <v>0.5088439645220323</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1259,16 +1259,16 @@
         <v>27327</v>
       </c>
       <c r="D38">
-        <v>212.602</v>
+        <v>205.312</v>
       </c>
       <c r="E38" s="3">
         <v>10</v>
       </c>
       <c r="F38">
-        <v>0.3723491121467837</v>
+        <v>0.3617528293075056</v>
       </c>
       <c r="G38">
-        <v>0.5172379668846484</v>
+        <v>0.5075983035407062</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1288,10 +1288,10 @@
         <v>16</v>
       </c>
       <c r="F39">
-        <v>0.3637506094791428</v>
+        <v>0.3642452994200327</v>
       </c>
       <c r="G39">
-        <v>0.510798247588736</v>
+        <v>0.5094579583081865</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1311,10 +1311,10 @@
         <v>56</v>
       </c>
       <c r="F40">
-        <v>0.6159005326374197</v>
+        <v>0.6165322311485333</v>
       </c>
       <c r="G40">
-        <v>0.6849537771807839</v>
+        <v>0.6823407821152064</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1334,10 +1334,10 @@
         <v>6</v>
       </c>
       <c r="F41">
-        <v>0.006935480698701546</v>
+        <v>0.006947369547073484</v>
       </c>
       <c r="G41">
-        <v>0.06904941484713564</v>
+        <v>0.07000207617059133</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1357,10 +1357,10 @@
         <v>87</v>
       </c>
       <c r="F42">
-        <v>0.9785972564190827</v>
+        <v>0.9787383224033448</v>
       </c>
       <c r="G42">
-        <v>0.9555788636323356</v>
+        <v>0.9537314912445886</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1380,10 +1380,10 @@
         <v>7</v>
       </c>
       <c r="F43">
-        <v>0.2083390940188587</v>
+        <v>0.2086571795210225</v>
       </c>
       <c r="G43">
-        <v>0.3813607307987391</v>
+        <v>0.3810898700999379</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1403,10 +1403,10 @@
         <v>12</v>
       </c>
       <c r="F44">
-        <v>0.1200736257837337</v>
+        <v>0.1202672255916622</v>
       </c>
       <c r="G44">
-        <v>0.2877446352867636</v>
+        <v>0.2881611314281282</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1426,10 +1426,10 @@
         <v>8</v>
       </c>
       <c r="F45">
-        <v>0.04235213061894908</v>
+        <v>0.042423416922967</v>
       </c>
       <c r="G45">
-        <v>0.1702939387087302</v>
+        <v>0.1712876586252341</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1449,10 +1449,10 @@
         <v>16</v>
       </c>
       <c r="F46">
-        <v>0.2678903362855715</v>
+        <v>0.2682829346714851</v>
       </c>
       <c r="G46">
-        <v>0.4345332776610734</v>
+        <v>0.4338290679515271</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1466,16 +1466,16 @@
         <v>31429</v>
       </c>
       <c r="D47">
-        <v>3096.133299999999</v>
+        <v>3084.823299999999</v>
       </c>
       <c r="E47" s="3">
         <v>114</v>
       </c>
       <c r="F47">
-        <v>0.9993843416042409</v>
+        <v>0.9993753498865218</v>
       </c>
       <c r="G47">
-        <v>0.9946629956092238</v>
+        <v>0.9941207240915463</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1495,10 +1495,10 @@
         <v>10</v>
       </c>
       <c r="F48">
-        <v>0.08174966912754421</v>
+        <v>0.08188437329935869</v>
       </c>
       <c r="G48">
-        <v>0.2369239425721376</v>
+        <v>0.2376428082713817</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1518,10 +1518,10 @@
         <v>9</v>
       </c>
       <c r="F49">
-        <v>0.0272509006209394</v>
+        <v>0.02729713181482321</v>
       </c>
       <c r="G49">
-        <v>0.1365977647882361</v>
+        <v>0.1376565718724659</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1541,10 +1541,10 @@
         <v>8</v>
       </c>
       <c r="F50">
-        <v>0.2694319979413231</v>
+        <v>0.2698264173423163</v>
       </c>
       <c r="G50">
-        <v>0.4358389751055225</v>
+        <v>0.4351239267940162</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1564,10 +1564,10 @@
         <v>8</v>
       </c>
       <c r="F51">
-        <v>0.1160226889767841</v>
+        <v>0.1162101971520798</v>
       </c>
       <c r="G51">
-        <v>0.2827800209852432</v>
+        <v>0.2832287843870434</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1587,10 +1587,10 @@
         <v>11</v>
       </c>
       <c r="F52">
-        <v>0.07693419428810643</v>
+        <v>0.07706130081100657</v>
       </c>
       <c r="G52">
-        <v>0.229788005894911</v>
+        <v>0.2305437474700897</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1610,10 +1610,10 @@
         <v>25</v>
       </c>
       <c r="F53">
-        <v>0.5956819828599371</v>
+        <v>0.5963113107494582</v>
       </c>
       <c r="G53">
-        <v>0.6716661624087845</v>
+        <v>0.6691306268091346</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1633,10 +1633,10 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>0.4333966494207794</v>
+        <v>0.4339500842377791</v>
       </c>
       <c r="G54">
-        <v>0.5615702182915848</v>
+        <v>0.5598173803898702</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1656,10 +1656,10 @@
         <v>6</v>
       </c>
       <c r="F55">
-        <v>0.02794235195962758</v>
+        <v>0.02798973924320487</v>
       </c>
       <c r="G55">
-        <v>0.1383182321490529</v>
+        <v>0.1393752351845627</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1673,16 +1673,16 @@
         <v>34626</v>
       </c>
       <c r="D56">
-        <v>153.136</v>
+        <v>148.666</v>
       </c>
       <c r="E56" s="3">
         <v>8</v>
       </c>
       <c r="F56">
-        <v>0.2759662315472693</v>
+        <v>0.2685424323926916</v>
       </c>
       <c r="G56">
-        <v>0.4413390856627818</v>
+        <v>0.434046981907281</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>2.64566463253627e-09</v>
+        <v>3.120731044221785e-09</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1725,10 +1725,10 @@
         <v>6</v>
       </c>
       <c r="F58">
-        <v>0.3287657418673391</v>
+        <v>0.3292258722167992</v>
       </c>
       <c r="G58">
-        <v>0.4839948512369391</v>
+        <v>0.4828777012573838</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1748,10 +1748,10 @@
         <v>35</v>
       </c>
       <c r="F59">
-        <v>0.5718014870571416</v>
+        <v>0.5724257799799968</v>
       </c>
       <c r="G59">
-        <v>0.655902974305608</v>
+        <v>0.6534652306011058</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1771,15 +1771,15 @@
         <v>116</v>
       </c>
       <c r="F60">
-        <v>0.9856476605884852</v>
+        <v>0.9857520546122556</v>
       </c>
       <c r="G60">
-        <v>0.9652949603216171</v>
+        <v>0.9636870431529652</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B61" s="2">
         <v>39903</v>
@@ -1794,15 +1794,15 @@
         <v>76</v>
       </c>
       <c r="F61">
-        <v>0.667586247680412</v>
+        <v>0.6682154361592868</v>
       </c>
       <c r="G61">
-        <v>0.7188108371943616</v>
+        <v>0.7160242700099764</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B62" s="2">
         <v>42998</v>
@@ -1817,15 +1817,15 @@
         <v>10</v>
       </c>
       <c r="F62">
-        <v>0.09102348794908463</v>
+        <v>0.09117270117404355</v>
       </c>
       <c r="G62">
-        <v>0.2501177458392068</v>
+        <v>0.2507645106598095</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B63" s="2">
         <v>43857</v>
@@ -1840,10 +1840,10 @@
         <v>133</v>
       </c>
       <c r="F63">
-        <v>0.9997488631918874</v>
+        <v>0.9997524188875809</v>
       </c>
       <c r="G63">
-        <v>0.9968206718114339</v>
+        <v>0.9965156299081206</v>
       </c>
     </row>
   </sheetData>

--- a/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
+++ b/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
@@ -394,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,10 +437,10 @@
         <v>29</v>
       </c>
       <c r="F2">
-        <v>0.4535277971113451</v>
+        <v>0.456438285308356</v>
       </c>
       <c r="G2">
-        <v>0.5734791886872768</v>
+        <v>0.5946080815016426</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -460,10 +460,10 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>0.1179129418069409</v>
+        <v>0.1188904404129971</v>
       </c>
       <c r="G3">
-        <v>0.2853087006858848</v>
+        <v>0.292207416994111</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -483,10 +483,10 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>0.04892478570585143</v>
+        <v>0.04934630657270472</v>
       </c>
       <c r="G4">
-        <v>0.1838577298970954</v>
+        <v>0.1859492534638571</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -506,10 +506,10 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>0.03962418925596779</v>
+        <v>0.03996727157481791</v>
       </c>
       <c r="G5">
-        <v>0.1655820688594732</v>
+        <v>0.1669321499764016</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -529,10 +529,10 @@
         <v>41</v>
       </c>
       <c r="F6">
-        <v>0.07783742552582337</v>
+        <v>0.07849757518135056</v>
       </c>
       <c r="G6">
-        <v>0.2317004224295548</v>
+        <v>0.2359414138669834</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -552,10 +552,10 @@
         <v>25</v>
       </c>
       <c r="F7">
-        <v>0.451789584164324</v>
+        <v>0.4546940260524142</v>
       </c>
       <c r="G7">
-        <v>0.5722734111526541</v>
+        <v>0.5933556422553211</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -575,10 +575,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>0.001007778286129896</v>
+        <v>0.001016679896926618</v>
       </c>
       <c r="G8">
-        <v>0.02701151003266683</v>
+        <v>0.02568731204238746</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -598,10 +598,10 @@
         <v>18</v>
       </c>
       <c r="F9">
-        <v>0.530018824508887</v>
+        <v>0.5331444704134104</v>
       </c>
       <c r="G9">
-        <v>0.6254003625127171</v>
+        <v>0.6483240132782805</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -621,10 +621,10 @@
         <v>34</v>
       </c>
       <c r="F10">
-        <v>0.378426221083617</v>
+        <v>0.3810327115690741</v>
       </c>
       <c r="G10">
-        <v>0.5199529679004951</v>
+        <v>0.5388323385177153</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -644,10 +644,10 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <v>0.1077093146820041</v>
+        <v>0.108607523417468</v>
       </c>
       <c r="G11">
-        <v>0.2726205171527307</v>
+        <v>0.2788730313709404</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -661,16 +661,16 @@
         <v>15660</v>
       </c>
       <c r="D12">
-        <v>41.86799999999998</v>
+        <v>41.64799999999998</v>
       </c>
       <c r="E12" s="3">
         <v>8</v>
       </c>
       <c r="F12">
-        <v>0.05419241365276442</v>
+        <v>0.05415296938776069</v>
       </c>
       <c r="G12">
-        <v>0.1934466027215093</v>
+        <v>0.1950169135912066</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -690,10 +690,10 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>0.03002725819148154</v>
+        <v>0.03028856132912447</v>
       </c>
       <c r="G13">
-        <v>0.1443114674944783</v>
+        <v>0.1448698362448913</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -713,10 +713,10 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <v>0.009236681532334645</v>
+        <v>0.009317928295665977</v>
       </c>
       <c r="G14">
-        <v>0.08056955282316679</v>
+        <v>0.07939398569248958</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -736,10 +736,10 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>0.2013634510299247</v>
+        <v>0.2029488327451937</v>
       </c>
       <c r="G15">
-        <v>0.3742106071737282</v>
+        <v>0.3857813671399947</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -759,10 +759,10 @@
         <v>90</v>
       </c>
       <c r="F16">
-        <v>0.9474181079555035</v>
+        <v>0.948769130448873</v>
       </c>
       <c r="G16">
-        <v>0.9188942448901316</v>
+        <v>0.9359366468609942</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -776,16 +776,16 @@
         <v>16383</v>
       </c>
       <c r="D17">
-        <v>723.2480999999997</v>
+        <v>697.0880999999997</v>
       </c>
       <c r="E17" s="3">
         <v>47</v>
       </c>
       <c r="F17">
-        <v>0.81647365729994</v>
+        <v>0.8073484016113568</v>
       </c>
       <c r="G17">
-        <v>0.8151226585960806</v>
+        <v>0.8309037999330935</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -805,15 +805,15 @@
         <v>46</v>
       </c>
       <c r="F18">
-        <v>0.8604897950091843</v>
+        <v>0.8628971389059762</v>
       </c>
       <c r="G18">
-        <v>0.8467974070450799</v>
+        <v>0.869406435400824</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2">
         <v>17893</v>
@@ -828,15 +828,15 @@
         <v>14</v>
       </c>
       <c r="F19">
-        <v>0.3609808876474872</v>
+        <v>0.3635048544208712</v>
       </c>
       <c r="G19">
-        <v>0.5070214096419517</v>
+        <v>0.5253095515545443</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2">
         <v>17926</v>
@@ -851,15 +851,15 @@
         <v>37</v>
       </c>
       <c r="F20">
-        <v>0.8489879025846336</v>
+        <v>0.8514897811709355</v>
       </c>
       <c r="G20">
-        <v>0.8383361418981622</v>
+        <v>0.8613344367964542</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2">
         <v>18201</v>
@@ -868,21 +868,21 @@
         <v>18260</v>
       </c>
       <c r="D21">
-        <v>370.9396999999999</v>
+        <v>370.7196999999999</v>
       </c>
       <c r="E21" s="3">
         <v>60</v>
       </c>
       <c r="F21">
-        <v>0.5715572111265292</v>
+        <v>0.5745273194679344</v>
       </c>
       <c r="G21">
-        <v>0.6528939738185671</v>
+        <v>0.6764188183050507</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2">
         <v>18853</v>
@@ -891,21 +891,21 @@
         <v>18915</v>
       </c>
       <c r="D22">
-        <v>1360.6069</v>
+        <v>1352.8269</v>
       </c>
       <c r="E22" s="3">
         <v>63</v>
       </c>
       <c r="F22">
-        <v>0.9604086507376332</v>
+        <v>0.9607888661344086</v>
       </c>
       <c r="G22">
-        <v>0.9321337477489449</v>
+        <v>0.9468712271283568</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2">
         <v>19050</v>
@@ -920,15 +920,15 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>0.1932713386849009</v>
+        <v>0.1948010493038771</v>
       </c>
       <c r="G23">
-        <v>0.3664471160611598</v>
+        <v>0.3776063161124989</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2">
         <v>19093</v>
@@ -943,15 +943,15 @@
         <v>57</v>
       </c>
       <c r="F24">
-        <v>0.859695142912881</v>
+        <v>0.8621092778049834</v>
       </c>
       <c r="G24">
-        <v>0.8462078521496383</v>
+        <v>0.8688454646257577</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2">
         <v>20119</v>
@@ -966,15 +966,15 @@
         <v>26</v>
       </c>
       <c r="F25">
-        <v>0.07530439785455131</v>
+        <v>0.07594396051253505</v>
       </c>
       <c r="G25">
-        <v>0.2279042478599306</v>
+        <v>0.23196556401993</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2">
         <v>20778</v>
@@ -989,15 +989,15 @@
         <v>19</v>
       </c>
       <c r="F26">
-        <v>0.4922658701248102</v>
+        <v>0.495298089818908</v>
       </c>
       <c r="G26">
-        <v>0.6000282800773625</v>
+        <v>0.6221299527131881</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="2">
         <v>21855</v>
@@ -1006,21 +1006,21 @@
         <v>21924</v>
       </c>
       <c r="D27">
-        <v>938.6927999999998</v>
+        <v>938.4727999999998</v>
       </c>
       <c r="E27" s="3">
         <v>70</v>
       </c>
       <c r="F27">
-        <v>0.8907204146539784</v>
+        <v>0.8927804017850125</v>
       </c>
       <c r="G27">
-        <v>0.8698872164845448</v>
+        <v>0.8911477512829834</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="2">
         <v>21941</v>
@@ -1035,15 +1035,15 @@
         <v>19</v>
       </c>
       <c r="F28">
-        <v>0.1533161423450484</v>
+        <v>0.1545605211018792</v>
       </c>
       <c r="G28">
-        <v>0.3257362617517343</v>
+        <v>0.3347399160960936</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="2">
         <v>23008</v>
@@ -1058,15 +1058,15 @@
         <v>14</v>
       </c>
       <c r="F29">
-        <v>0.2227404065507414</v>
+        <v>0.2244693258856998</v>
       </c>
       <c r="G29">
-        <v>0.3940791602247605</v>
+        <v>0.4067000445763652</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="2">
         <v>23173</v>
@@ -1081,15 +1081,15 @@
         <v>109</v>
       </c>
       <c r="F30">
-        <v>0.9828044906221561</v>
+        <v>0.9834109810777103</v>
       </c>
       <c r="G30">
-        <v>0.9593250466399729</v>
+        <v>0.9705449141039382</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2">
         <v>23399</v>
@@ -1104,15 +1104,15 @@
         <v>11</v>
       </c>
       <c r="F31">
-        <v>0.3964579111565711</v>
+        <v>0.3991451284445828</v>
       </c>
       <c r="G31">
-        <v>0.5331008201872918</v>
+        <v>0.5525639154786957</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2">
         <v>24893</v>
@@ -1127,15 +1127,15 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>0.6452522562276861</v>
+        <v>0.6484864247347032</v>
       </c>
       <c r="G32">
-        <v>0.7010601039367004</v>
+        <v>0.7256515131078404</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="2">
         <v>24990</v>
@@ -1150,15 +1150,15 @@
         <v>6</v>
       </c>
       <c r="F33">
-        <v>0.03238957470902752</v>
+        <v>0.03267108690801651</v>
       </c>
       <c r="G33">
-        <v>0.1498294540412411</v>
+        <v>0.1505850884739003</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2">
         <v>25017</v>
@@ -1173,38 +1173,38 @@
         <v>9</v>
       </c>
       <c r="F34">
-        <v>0.1306821138771109</v>
+        <v>0.1317573562949799</v>
       </c>
       <c r="G34">
-        <v>0.3004740081692701</v>
+        <v>0.3081553789870479</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="2">
         <v>25050</v>
       </c>
       <c r="C35" s="2">
-        <v>25138</v>
+        <v>25137</v>
       </c>
       <c r="D35">
-        <v>896.9914999999997</v>
+        <v>870.3554999999998</v>
       </c>
       <c r="E35" s="3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F35">
-        <v>0.879185043365764</v>
+        <v>0.8734995432028833</v>
       </c>
       <c r="G35">
-        <v>0.8609106099723336</v>
+        <v>0.8770109888807145</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="2">
         <v>25167</v>
@@ -1219,15 +1219,15 @@
         <v>28</v>
       </c>
       <c r="F36">
-        <v>0.4679093310140311</v>
+        <v>0.4708679492544749</v>
       </c>
       <c r="G36">
-        <v>0.5834052931635964</v>
+        <v>0.6049103722871053</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" s="2">
         <v>26254</v>
@@ -1242,15 +1242,15 @@
         <v>31</v>
       </c>
       <c r="F37">
-        <v>0.3634216869426148</v>
+        <v>0.365957456839671</v>
       </c>
       <c r="G37">
-        <v>0.5088439645220323</v>
+        <v>0.5272164035966458</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" s="2">
         <v>27318</v>
@@ -1259,21 +1259,21 @@
         <v>27327</v>
       </c>
       <c r="D38">
-        <v>205.312</v>
+        <v>193.402</v>
       </c>
       <c r="E38" s="3">
         <v>10</v>
       </c>
       <c r="F38">
-        <v>0.3617528293075056</v>
+        <v>0.3456312613568117</v>
       </c>
       <c r="G38">
-        <v>0.5075983035407062</v>
+        <v>0.5112601163553028</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" s="2">
         <v>28536</v>
@@ -1288,15 +1288,15 @@
         <v>16</v>
       </c>
       <c r="F39">
-        <v>0.3642452994200327</v>
+        <v>0.366785033373981</v>
       </c>
       <c r="G39">
-        <v>0.5094579583081865</v>
+        <v>0.5278587260426937</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" s="2">
         <v>28594</v>
@@ -1311,15 +1311,15 @@
         <v>56</v>
       </c>
       <c r="F40">
-        <v>0.6165322311485333</v>
+        <v>0.6197667320535365</v>
       </c>
       <c r="G40">
-        <v>0.6823407821152064</v>
+        <v>0.706644830267916</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" s="2">
         <v>28681</v>
@@ -1334,15 +1334,15 @@
         <v>6</v>
       </c>
       <c r="F41">
-        <v>0.006947369547073484</v>
+        <v>0.007008550576576805</v>
       </c>
       <c r="G41">
-        <v>0.07000207617059133</v>
+        <v>0.06866786639844855</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" s="2">
         <v>28876</v>
@@ -1357,15 +1357,15 @@
         <v>87</v>
       </c>
       <c r="F42">
-        <v>0.9787383224033448</v>
+        <v>0.9794497154816091</v>
       </c>
       <c r="G42">
-        <v>0.9537314912445886</v>
+        <v>0.9659376638389008</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B43" s="2">
         <v>29980</v>
@@ -1380,15 +1380,15 @@
         <v>7</v>
       </c>
       <c r="F43">
-        <v>0.2086571795210225</v>
+        <v>0.2102921147728999</v>
       </c>
       <c r="G43">
-        <v>0.3810898700999379</v>
+        <v>0.3930248707346073</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" s="2">
         <v>30732</v>
@@ -1403,15 +1403,15 @@
         <v>12</v>
       </c>
       <c r="F44">
-        <v>0.1202672255916622</v>
+        <v>0.1212628699479383</v>
       </c>
       <c r="G44">
-        <v>0.2881611314281282</v>
+        <v>0.295206266264294</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" s="2">
         <v>31078</v>
@@ -1426,15 +1426,15 @@
         <v>8</v>
       </c>
       <c r="F45">
-        <v>0.042423416922967</v>
+        <v>0.04279019191667693</v>
       </c>
       <c r="G45">
-        <v>0.1712876586252341</v>
+        <v>0.1728636118895857</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B46" s="2">
         <v>31276</v>
@@ -1449,15 +1449,15 @@
         <v>16</v>
       </c>
       <c r="F46">
-        <v>0.2682829346714851</v>
+        <v>0.2703000266792889</v>
       </c>
       <c r="G46">
-        <v>0.4338290679515271</v>
+        <v>0.4485209877096592</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B47" s="2">
         <v>31316</v>
@@ -1466,21 +1466,21 @@
         <v>31429</v>
       </c>
       <c r="D47">
-        <v>3084.823299999999</v>
+        <v>3052.843299999999</v>
       </c>
       <c r="E47" s="3">
         <v>114</v>
       </c>
       <c r="F47">
-        <v>0.9993753498865218</v>
+        <v>0.9993675357725381</v>
       </c>
       <c r="G47">
-        <v>0.9941207240915463</v>
+        <v>0.9965394875327398</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="2">
         <v>31628</v>
@@ -1495,15 +1495,15 @@
         <v>10</v>
       </c>
       <c r="F48">
-        <v>0.08188437329935869</v>
+        <v>0.0825772855254862</v>
       </c>
       <c r="G48">
-        <v>0.2376428082713817</v>
+        <v>0.2421677103570429</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="2">
         <v>31860</v>
@@ -1518,15 +1518,15 @@
         <v>9</v>
       </c>
       <c r="F49">
-        <v>0.02729713181482321</v>
+        <v>0.02753501549482289</v>
       </c>
       <c r="G49">
-        <v>0.1376565718724659</v>
+        <v>0.1379852508818057</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="2">
         <v>32149</v>
@@ -1541,15 +1541,15 @@
         <v>8</v>
       </c>
       <c r="F50">
-        <v>0.2698264173423163</v>
+        <v>0.2718528427878296</v>
       </c>
       <c r="G50">
-        <v>0.4351239267940162</v>
+        <v>0.4498823105983869</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" s="2">
         <v>32230</v>
@@ -1564,15 +1564,15 @@
         <v>8</v>
       </c>
       <c r="F51">
-        <v>0.1162101971520798</v>
+        <v>0.1171745368948168</v>
       </c>
       <c r="G51">
-        <v>0.2832287843870434</v>
+        <v>0.2900209881439849</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" s="2">
         <v>32392</v>
@@ -1587,15 +1587,15 @@
         <v>11</v>
       </c>
       <c r="F52">
-        <v>0.07706130081100657</v>
+        <v>0.07771514914858633</v>
       </c>
       <c r="G52">
-        <v>0.2305437474700897</v>
+        <v>0.2347298494939028</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B53" s="2">
         <v>32472</v>
@@ -1610,15 +1610,15 @@
         <v>25</v>
       </c>
       <c r="F53">
-        <v>0.5963113107494582</v>
+        <v>0.5995345463383216</v>
       </c>
       <c r="G53">
-        <v>0.6691306268091346</v>
+        <v>0.6931786664959569</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B54" s="2">
         <v>33254</v>
@@ -1633,15 +1633,15 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>0.4339500842377791</v>
+        <v>0.4367896741435222</v>
       </c>
       <c r="G54">
-        <v>0.5598173803898702</v>
+        <v>0.5804058927496979</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B55" s="2">
         <v>33298</v>
@@ -1656,38 +1656,38 @@
         <v>6</v>
       </c>
       <c r="F55">
-        <v>0.02798973924320487</v>
+        <v>0.02823357069298679</v>
       </c>
       <c r="G55">
-        <v>0.1393752351845627</v>
+        <v>0.1397623444467889</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B56" s="2">
-        <v>34619</v>
+        <v>34620</v>
       </c>
       <c r="C56" s="2">
         <v>34626</v>
       </c>
       <c r="D56">
-        <v>148.666</v>
+        <v>139.9039999999999</v>
       </c>
       <c r="E56" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56">
-        <v>0.2685424323926916</v>
+        <v>0.2548787708821944</v>
       </c>
       <c r="G56">
-        <v>0.434046981907281</v>
+        <v>0.4348164264292126</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B57" s="2">
         <v>34956</v>
@@ -1705,12 +1705,12 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>3.120731044221785e-09</v>
+        <v>1.759430566470838e-09</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B58" s="2">
         <v>38053</v>
@@ -1725,15 +1725,15 @@
         <v>6</v>
       </c>
       <c r="F58">
-        <v>0.3292258722167992</v>
+        <v>0.3315888457356055</v>
       </c>
       <c r="G58">
-        <v>0.4828777012573838</v>
+        <v>0.5000217193025353</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B59" s="2">
         <v>38399</v>
@@ -1748,15 +1748,15 @@
         <v>35</v>
       </c>
       <c r="F59">
-        <v>0.5724257799799968</v>
+        <v>0.5756241970409621</v>
       </c>
       <c r="G59">
-        <v>0.6534652306011058</v>
+        <v>0.6771570090182866</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B60" s="2">
         <v>38846</v>
@@ -1771,15 +1771,15 @@
         <v>116</v>
       </c>
       <c r="F60">
-        <v>0.9857520546122556</v>
+        <v>0.9862774060705517</v>
       </c>
       <c r="G60">
-        <v>0.9636870431529652</v>
+        <v>0.9740845997455293</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B61" s="2">
         <v>39903</v>
@@ -1794,10 +1794,10 @@
         <v>76</v>
       </c>
       <c r="F61">
-        <v>0.6682154361592868</v>
+        <v>0.671434627507651</v>
       </c>
       <c r="G61">
-        <v>0.7160242700099764</v>
+        <v>0.7407765438013726</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1817,10 +1817,10 @@
         <v>10</v>
       </c>
       <c r="F62">
-        <v>0.09117270117404355</v>
+        <v>0.09194020613779094</v>
       </c>
       <c r="G62">
-        <v>0.2507645106598095</v>
+        <v>0.255926962991087</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1840,10 +1840,33 @@
         <v>133</v>
       </c>
       <c r="F63">
-        <v>0.9997524188875809</v>
+        <v>0.9997699366975298</v>
       </c>
       <c r="G63">
-        <v>0.9965156299081206</v>
+        <v>0.9981836187804234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>164</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44123</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44130</v>
+      </c>
+      <c r="D64">
+        <v>318.822396</v>
+      </c>
+      <c r="E64" s="3">
+        <v>8</v>
+      </c>
+      <c r="F64">
+        <v>0.5173987797657653</v>
+      </c>
+      <c r="G64">
+        <v>0.6374912600607676</v>
       </c>
     </row>
   </sheetData>

--- a/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
+++ b/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
@@ -437,10 +437,10 @@
         <v>29</v>
       </c>
       <c r="F2">
-        <v>0.456438285308356</v>
+        <v>0.4549899112058158</v>
       </c>
       <c r="G2">
-        <v>0.5946080815016426</v>
+        <v>0.5877839005003375</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -460,10 +460,10 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>0.1188904404129971</v>
+        <v>0.1184034814077359</v>
       </c>
       <c r="G3">
-        <v>0.292207416994111</v>
+        <v>0.2985558460348083</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -483,10 +483,10 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>0.04934630657270472</v>
+        <v>0.04913628309501719</v>
       </c>
       <c r="G4">
-        <v>0.1859492534638571</v>
+        <v>0.1947541922786281</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -506,10 +506,10 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>0.03996727157481791</v>
+        <v>0.03979632654685609</v>
       </c>
       <c r="G5">
-        <v>0.1669321499764016</v>
+        <v>0.1758994720053409</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -529,10 +529,10 @@
         <v>41</v>
       </c>
       <c r="F6">
-        <v>0.07849757518135056</v>
+        <v>0.07816867702303108</v>
       </c>
       <c r="G6">
-        <v>0.2359414138669834</v>
+        <v>0.2438715209213698</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -552,10 +552,10 @@
         <v>25</v>
       </c>
       <c r="F7">
-        <v>0.4546940260524142</v>
+        <v>0.4532486506434048</v>
       </c>
       <c r="G7">
-        <v>0.5933556422553211</v>
+        <v>0.5865882077236391</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -575,10 +575,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>0.001016679896926618</v>
+        <v>0.00101224417109956</v>
       </c>
       <c r="G8">
-        <v>0.02568731204238746</v>
+        <v>0.03013978862330371</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -598,10 +598,10 @@
         <v>18</v>
       </c>
       <c r="F9">
-        <v>0.5331444704134104</v>
+        <v>0.5315895459644953</v>
       </c>
       <c r="G9">
-        <v>0.6483240132782805</v>
+        <v>0.6391573979038417</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -621,10 +621,10 @@
         <v>34</v>
       </c>
       <c r="F10">
-        <v>0.3810327115690741</v>
+        <v>0.3797352479905387</v>
       </c>
       <c r="G10">
-        <v>0.5388323385177153</v>
+        <v>0.5345917603318608</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -644,15 +644,15 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <v>0.108607523417468</v>
+        <v>0.1081600527156903</v>
       </c>
       <c r="G11">
-        <v>0.2788730313709404</v>
+        <v>0.2856432348925894</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2">
         <v>15653</v>
@@ -661,21 +661,21 @@
         <v>15660</v>
       </c>
       <c r="D12">
-        <v>41.64799999999998</v>
+        <v>39.33199999999998</v>
       </c>
       <c r="E12" s="3">
         <v>8</v>
       </c>
       <c r="F12">
-        <v>0.05415296938776069</v>
+        <v>0.04861212299640332</v>
       </c>
       <c r="G12">
-        <v>0.1950169135912066</v>
+        <v>0.1937472456290134</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
         <v>15713</v>
@@ -690,15 +690,15 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>0.03028856132912447</v>
+        <v>0.03015836092410951</v>
       </c>
       <c r="G13">
-        <v>0.1448698362448913</v>
+        <v>0.153880463254525</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2">
         <v>15806</v>
@@ -713,15 +713,15 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <v>0.009317928295665977</v>
+        <v>0.009277443290584473</v>
       </c>
       <c r="G14">
-        <v>0.07939398569248958</v>
+        <v>0.08728300631777551</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2">
         <v>15835</v>
@@ -736,15 +736,15 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>0.2029488327451937</v>
+        <v>0.2021592195822816</v>
       </c>
       <c r="G15">
-        <v>0.3857813671399947</v>
+        <v>0.3885655800294499</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2">
         <v>16224</v>
@@ -759,15 +759,15 @@
         <v>90</v>
       </c>
       <c r="F16">
-        <v>0.948769130448873</v>
+        <v>0.9481003019996344</v>
       </c>
       <c r="G16">
-        <v>0.9359366468609942</v>
+        <v>0.9244601717605664</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
         <v>16337</v>
@@ -776,21 +776,21 @@
         <v>16383</v>
       </c>
       <c r="D17">
-        <v>697.0880999999997</v>
+        <v>694.0880999999998</v>
       </c>
       <c r="E17" s="3">
         <v>47</v>
       </c>
       <c r="F17">
-        <v>0.8073484016113568</v>
+        <v>0.8045463096597101</v>
       </c>
       <c r="G17">
-        <v>0.8309037999330935</v>
+        <v>0.8158020607026952</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2">
         <v>16440</v>
@@ -805,15 +805,15 @@
         <v>46</v>
       </c>
       <c r="F18">
-        <v>0.8628971389059762</v>
+        <v>0.8617027801059054</v>
       </c>
       <c r="G18">
-        <v>0.869406435400824</v>
+        <v>0.8554042983819239</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2">
         <v>17893</v>
@@ -828,15 +828,15 @@
         <v>14</v>
       </c>
       <c r="F19">
-        <v>0.3635048544208712</v>
+        <v>0.3622483924716228</v>
       </c>
       <c r="G19">
-        <v>0.5253095515545443</v>
+        <v>0.5217061382588084</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2">
         <v>17926</v>
@@ -851,15 +851,15 @@
         <v>37</v>
       </c>
       <c r="F20">
-        <v>0.8514897811709355</v>
+        <v>0.8502483018062038</v>
       </c>
       <c r="G20">
-        <v>0.8613344367964542</v>
+        <v>0.8472421137382453</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2">
         <v>18201</v>
@@ -868,21 +868,21 @@
         <v>18260</v>
       </c>
       <c r="D21">
-        <v>370.7196999999999</v>
+        <v>366.9196999999999</v>
       </c>
       <c r="E21" s="3">
         <v>60</v>
       </c>
       <c r="F21">
-        <v>0.5745273194679344</v>
+        <v>0.5689966268107939</v>
       </c>
       <c r="G21">
-        <v>0.6764188183050507</v>
+        <v>0.6635694857351503</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2">
         <v>18853</v>
@@ -891,21 +891,21 @@
         <v>18915</v>
       </c>
       <c r="D22">
-        <v>1352.8269</v>
+        <v>1352.7269</v>
       </c>
       <c r="E22" s="3">
         <v>63</v>
       </c>
       <c r="F22">
-        <v>0.9607888661344086</v>
+        <v>0.9602209534315229</v>
       </c>
       <c r="G22">
-        <v>0.9468712271283568</v>
+        <v>0.9362544707293097</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2">
         <v>19050</v>
@@ -920,15 +920,15 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>0.1948010493038771</v>
+        <v>0.19403914657937</v>
       </c>
       <c r="G23">
-        <v>0.3776063161124989</v>
+        <v>0.3807356423171802</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="2">
         <v>19093</v>
@@ -943,15 +943,15 @@
         <v>57</v>
       </c>
       <c r="F24">
-        <v>0.8621092778049834</v>
+        <v>0.8609115346327063</v>
       </c>
       <c r="G24">
-        <v>0.8688454646257577</v>
+        <v>0.8548359201715583</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2">
         <v>20119</v>
@@ -966,15 +966,15 @@
         <v>26</v>
       </c>
       <c r="F25">
-        <v>0.07594396051253505</v>
+        <v>0.07562531722016136</v>
       </c>
       <c r="G25">
-        <v>0.23196556401993</v>
+        <v>0.239985814630482</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2">
         <v>20778</v>
@@ -989,15 +989,15 @@
         <v>19</v>
       </c>
       <c r="F26">
-        <v>0.495298089818908</v>
+        <v>0.4937893835835638</v>
       </c>
       <c r="G26">
-        <v>0.6221299527131881</v>
+        <v>0.6140807922611057</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" s="2">
         <v>21855</v>
@@ -1006,21 +1006,21 @@
         <v>21924</v>
       </c>
       <c r="D27">
-        <v>938.4727999999998</v>
+        <v>934.6727999999998</v>
       </c>
       <c r="E27" s="3">
         <v>70</v>
       </c>
       <c r="F27">
-        <v>0.8927804017850125</v>
+        <v>0.8907312083576358</v>
       </c>
       <c r="G27">
-        <v>0.8911477512829834</v>
+        <v>0.8768192473128932</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" s="2">
         <v>21941</v>
@@ -1035,15 +1035,15 @@
         <v>19</v>
       </c>
       <c r="F28">
-        <v>0.1545605211018792</v>
+        <v>0.1539406671236296</v>
       </c>
       <c r="G28">
-        <v>0.3347399160960936</v>
+        <v>0.3395839701541596</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" s="2">
         <v>23008</v>
@@ -1058,15 +1058,15 @@
         <v>14</v>
       </c>
       <c r="F29">
-        <v>0.2244693258856998</v>
+        <v>0.2236082743795941</v>
       </c>
       <c r="G29">
-        <v>0.4067000445763652</v>
+        <v>0.4085794247861964</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" s="2">
         <v>23173</v>
@@ -1081,15 +1081,15 @@
         <v>109</v>
       </c>
       <c r="F30">
-        <v>0.9834109810777103</v>
+        <v>0.9831114846057362</v>
       </c>
       <c r="G30">
-        <v>0.9705449141039382</v>
+        <v>0.962637803873948</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31" s="2">
         <v>23399</v>
@@ -1104,15 +1104,15 @@
         <v>11</v>
       </c>
       <c r="F31">
-        <v>0.3991451284445828</v>
+        <v>0.3978075679190241</v>
       </c>
       <c r="G31">
-        <v>0.5525639154786957</v>
+        <v>0.5476790373044748</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32" s="2">
         <v>24893</v>
@@ -1127,15 +1127,15 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>0.6484864247347032</v>
+        <v>0.6468785181473431</v>
       </c>
       <c r="G32">
-        <v>0.7256515131078404</v>
+        <v>0.7136075400883058</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2">
         <v>24990</v>
@@ -1150,15 +1150,15 @@
         <v>6</v>
       </c>
       <c r="F33">
-        <v>0.03267108690801651</v>
+        <v>0.03253081762341307</v>
       </c>
       <c r="G33">
-        <v>0.1505850884739003</v>
+        <v>0.1596008218379</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="2">
         <v>25017</v>
@@ -1173,15 +1173,15 @@
         <v>9</v>
       </c>
       <c r="F34">
-        <v>0.1317573562949799</v>
+        <v>0.131221721722562</v>
       </c>
       <c r="G34">
-        <v>0.3081553789870479</v>
+        <v>0.3139663895442236</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35" s="2">
         <v>25050</v>
@@ -1190,21 +1190,21 @@
         <v>25137</v>
       </c>
       <c r="D35">
-        <v>870.3554999999998</v>
+        <v>867.5154999999997</v>
       </c>
       <c r="E35" s="3">
         <v>88</v>
       </c>
       <c r="F35">
-        <v>0.8734995432028833</v>
+        <v>0.8714734571135947</v>
       </c>
       <c r="G35">
-        <v>0.8770109888807145</v>
+        <v>0.8624840692614197</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B36" s="2">
         <v>25167</v>
@@ -1219,15 +1219,15 @@
         <v>28</v>
       </c>
       <c r="F36">
-        <v>0.4708679492544749</v>
+        <v>0.4693957109003474</v>
       </c>
       <c r="G36">
-        <v>0.6049103722871053</v>
+        <v>0.597622476687076</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B37" s="2">
         <v>26254</v>
@@ -1242,15 +1242,15 @@
         <v>31</v>
       </c>
       <c r="F37">
-        <v>0.365957456839671</v>
+        <v>0.3646951298689182</v>
       </c>
       <c r="G37">
-        <v>0.5272164035966458</v>
+        <v>0.5235230388332974</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B38" s="2">
         <v>27318</v>
@@ -1259,21 +1259,21 @@
         <v>27327</v>
       </c>
       <c r="D38">
-        <v>193.402</v>
+        <v>190.662</v>
       </c>
       <c r="E38" s="3">
         <v>10</v>
       </c>
       <c r="F38">
-        <v>0.3456312613568117</v>
+        <v>0.3400625808621303</v>
       </c>
       <c r="G38">
-        <v>0.5112601163553028</v>
+        <v>0.5050084258931471</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39" s="2">
         <v>28536</v>
@@ -1288,15 +1288,15 @@
         <v>16</v>
       </c>
       <c r="F39">
-        <v>0.366785033373981</v>
+        <v>0.3655207366955044</v>
       </c>
       <c r="G39">
-        <v>0.5278587260426937</v>
+        <v>0.5241350671431254</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B40" s="2">
         <v>28594</v>
@@ -1311,15 +1311,15 @@
         <v>56</v>
       </c>
       <c r="F40">
-        <v>0.6197667320535365</v>
+        <v>0.6181583820590135</v>
       </c>
       <c r="G40">
-        <v>0.706644830267916</v>
+        <v>0.6952348218025378</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B41" s="2">
         <v>28681</v>
@@ -1334,15 +1334,15 @@
         <v>6</v>
       </c>
       <c r="F41">
-        <v>0.007008550576576805</v>
+        <v>0.006978064107184439</v>
       </c>
       <c r="G41">
-        <v>0.06866786639844855</v>
+        <v>0.07612423856505109</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B42" s="2">
         <v>28876</v>
@@ -1357,15 +1357,15 @@
         <v>87</v>
       </c>
       <c r="F42">
-        <v>0.9794497154816091</v>
+        <v>0.9790982493245757</v>
       </c>
       <c r="G42">
-        <v>0.9659376638389008</v>
+        <v>0.9573910187906602</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B43" s="2">
         <v>29980</v>
@@ -1380,15 +1380,15 @@
         <v>7</v>
       </c>
       <c r="F43">
-        <v>0.2102921147728999</v>
+        <v>0.2094778376096611</v>
       </c>
       <c r="G43">
-        <v>0.3930248707346073</v>
+        <v>0.3954991496770336</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B44" s="2">
         <v>30732</v>
@@ -1403,15 +1403,15 @@
         <v>12</v>
       </c>
       <c r="F44">
-        <v>0.1212628699479383</v>
+        <v>0.1207668742410911</v>
       </c>
       <c r="G44">
-        <v>0.295206266264294</v>
+        <v>0.3014562894043815</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B45" s="2">
         <v>31078</v>
@@ -1426,15 +1426,15 @@
         <v>8</v>
       </c>
       <c r="F45">
-        <v>0.04279019191667693</v>
+        <v>0.04260744290175839</v>
       </c>
       <c r="G45">
-        <v>0.1728636118895857</v>
+        <v>0.1817918682668252</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B46" s="2">
         <v>31276</v>
@@ -1449,15 +1449,15 @@
         <v>16</v>
       </c>
       <c r="F46">
-        <v>0.2703000266792889</v>
+        <v>0.2692955914416756</v>
       </c>
       <c r="G46">
-        <v>0.4485209877096592</v>
+        <v>0.4485162646818176</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B47" s="2">
         <v>31316</v>
@@ -1466,21 +1466,21 @@
         <v>31429</v>
       </c>
       <c r="D47">
-        <v>3052.843299999999</v>
+        <v>3049.523299999999</v>
       </c>
       <c r="E47" s="3">
         <v>114</v>
       </c>
       <c r="F47">
-        <v>0.9993675357725381</v>
+        <v>0.999341607234423</v>
       </c>
       <c r="G47">
-        <v>0.9965394875327398</v>
+        <v>0.9945352039612192</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B48" s="2">
         <v>31628</v>
@@ -1495,15 +1495,15 @@
         <v>10</v>
       </c>
       <c r="F48">
-        <v>0.0825772855254862</v>
+        <v>0.08223206784532816</v>
       </c>
       <c r="G48">
-        <v>0.2421677103570429</v>
+        <v>0.2499503206817004</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B49" s="2">
         <v>31860</v>
@@ -1518,15 +1518,15 @@
         <v>9</v>
       </c>
       <c r="F49">
-        <v>0.02753501549482289</v>
+        <v>0.0274164836441946</v>
       </c>
       <c r="G49">
-        <v>0.1379852508818057</v>
+        <v>0.1469733665421691</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B50" s="2">
         <v>32149</v>
@@ -1541,15 +1541,15 @@
         <v>8</v>
       </c>
       <c r="F50">
-        <v>0.2718528427878296</v>
+        <v>0.2708437645794881</v>
       </c>
       <c r="G50">
-        <v>0.4498823105983869</v>
+        <v>0.4498149400260603</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B51" s="2">
         <v>32230</v>
@@ -1564,15 +1564,15 @@
         <v>8</v>
       </c>
       <c r="F51">
-        <v>0.1171745368948168</v>
+        <v>0.1166941311662669</v>
       </c>
       <c r="G51">
-        <v>0.2900209881439849</v>
+        <v>0.2964403608000822</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B52" s="2">
         <v>32392</v>
@@ -1587,15 +1587,15 @@
         <v>11</v>
       </c>
       <c r="F52">
-        <v>0.07771514914858633</v>
+        <v>0.07738938980995133</v>
       </c>
       <c r="G52">
-        <v>0.2347298494939028</v>
+        <v>0.242687764916975</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B53" s="2">
         <v>32472</v>
@@ -1610,15 +1610,15 @@
         <v>25</v>
       </c>
       <c r="F53">
-        <v>0.5995345463383216</v>
+        <v>0.5979316150322967</v>
       </c>
       <c r="G53">
-        <v>0.6931786664959569</v>
+        <v>0.6822501524212784</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B54" s="2">
         <v>33254</v>
@@ -1633,15 +1633,15 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>0.4367896741435222</v>
+        <v>0.4353764714259392</v>
       </c>
       <c r="G54">
-        <v>0.5804058927496979</v>
+        <v>0.5742294314373176</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B55" s="2">
         <v>33298</v>
@@ -1656,15 +1656,15 @@
         <v>6</v>
       </c>
       <c r="F55">
-        <v>0.02823357069298679</v>
+        <v>0.0281120754002282</v>
       </c>
       <c r="G55">
-        <v>0.1397623444467889</v>
+        <v>0.1487580341324217</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B56" s="2">
         <v>34620</v>
@@ -1673,21 +1673,21 @@
         <v>34626</v>
       </c>
       <c r="D56">
-        <v>139.9039999999999</v>
+        <v>138.384</v>
       </c>
       <c r="E56" s="3">
         <v>7</v>
       </c>
       <c r="F56">
-        <v>0.2548787708821944</v>
+        <v>0.2511751142908956</v>
       </c>
       <c r="G56">
-        <v>0.4348164264292126</v>
+        <v>0.4330661913757727</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B57" s="2">
         <v>34956</v>
@@ -1705,12 +1705,12 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>1.759430566470838e-09</v>
+        <v>5.360240735885756e-09</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B58" s="2">
         <v>38053</v>
@@ -1725,15 +1725,15 @@
         <v>6</v>
       </c>
       <c r="F58">
-        <v>0.3315888457356055</v>
+        <v>0.3304124016309657</v>
       </c>
       <c r="G58">
-        <v>0.5000217193025353</v>
+        <v>0.4976118713576688</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B59" s="2">
         <v>38399</v>
@@ -1748,15 +1748,15 @@
         <v>35</v>
       </c>
       <c r="F59">
-        <v>0.5756241970409621</v>
+        <v>0.5740334050161526</v>
       </c>
       <c r="G59">
-        <v>0.6771570090182866</v>
+        <v>0.6668321307938282</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B60" s="2">
         <v>38846</v>
@@ -1771,15 +1771,15 @@
         <v>116</v>
       </c>
       <c r="F60">
-        <v>0.9862774060705517</v>
+        <v>0.9860180866820041</v>
       </c>
       <c r="G60">
-        <v>0.9740845997455293</v>
+        <v>0.9667192086187949</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B61" s="2">
         <v>39903</v>
@@ -1794,15 +1794,15 @@
         <v>76</v>
       </c>
       <c r="F61">
-        <v>0.671434627507651</v>
+        <v>0.6698344049741851</v>
       </c>
       <c r="G61">
-        <v>0.7407765438013726</v>
+        <v>0.7282711886110903</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B62" s="2">
         <v>42998</v>
@@ -1817,15 +1817,15 @@
         <v>10</v>
       </c>
       <c r="F62">
-        <v>0.09194020613779094</v>
+        <v>0.09155783402842115</v>
       </c>
       <c r="G62">
-        <v>0.255926962991087</v>
+        <v>0.2633575344163721</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B63" s="2">
         <v>43857</v>
@@ -1840,33 +1840,33 @@
         <v>133</v>
       </c>
       <c r="F63">
-        <v>0.9997699366975298</v>
+        <v>0.9997613681125073</v>
       </c>
       <c r="G63">
-        <v>0.9981836187804234</v>
+        <v>0.9969471187609823</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B64" s="2">
         <v>44123</v>
       </c>
       <c r="C64" s="2">
-        <v>44130</v>
+        <v>44132</v>
       </c>
       <c r="D64">
-        <v>318.822396</v>
+        <v>456.034166</v>
       </c>
       <c r="E64" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F64">
-        <v>0.5173987797657653</v>
+        <v>0.6525158488498377</v>
       </c>
       <c r="G64">
-        <v>0.6374912600607676</v>
+        <v>0.717208975706084</v>
       </c>
     </row>
   </sheetData>

--- a/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
+++ b/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
@@ -437,10 +437,10 @@
         <v>29</v>
       </c>
       <c r="F2">
-        <v>0.4549899112058158</v>
+        <v>0.4500289667021842</v>
       </c>
       <c r="G2">
-        <v>0.5877839005003375</v>
+        <v>0.6159997917296848</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -460,10 +460,10 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>0.1184034814077359</v>
+        <v>0.1167432915434573</v>
       </c>
       <c r="G3">
-        <v>0.2985558460348083</v>
+        <v>0.3000958933907609</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -483,10 +483,10 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>0.04913628309501719</v>
+        <v>0.04842077270656978</v>
       </c>
       <c r="G4">
-        <v>0.1947541922786281</v>
+        <v>0.1889308008941017</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -506,10 +506,10 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>0.03979632654685609</v>
+        <v>0.03921400404175449</v>
       </c>
       <c r="G5">
-        <v>0.1758994720053409</v>
+        <v>0.1691397264163368</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -529,10 +529,10 @@
         <v>41</v>
       </c>
       <c r="F6">
-        <v>0.07816867702303108</v>
+        <v>0.0770478474000256</v>
       </c>
       <c r="G6">
-        <v>0.2438715209213698</v>
+        <v>0.2411365971094708</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -552,10 +552,10 @@
         <v>25</v>
       </c>
       <c r="F7">
-        <v>0.4532486506434048</v>
+        <v>0.4482981298672116</v>
       </c>
       <c r="G7">
-        <v>0.5865882077236391</v>
+        <v>0.6147079811932377</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -575,10 +575,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>0.00101224417109956</v>
+        <v>0.0009971396929902634</v>
       </c>
       <c r="G8">
-        <v>0.03013978862330371</v>
+        <v>0.02472309872152418</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -592,16 +592,16 @@
         <v>12750</v>
       </c>
       <c r="D9">
-        <v>332.4859999999999</v>
+        <v>292.9459999999998</v>
       </c>
       <c r="E9" s="3">
         <v>18</v>
       </c>
       <c r="F9">
-        <v>0.5315895459644953</v>
+        <v>0.4794884952208273</v>
       </c>
       <c r="G9">
-        <v>0.6391573979038417</v>
+        <v>0.6377013132448659</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -621,10 +621,10 @@
         <v>34</v>
       </c>
       <c r="F10">
-        <v>0.3797352479905387</v>
+        <v>0.3752967520042944</v>
       </c>
       <c r="G10">
-        <v>0.5345917603318608</v>
+        <v>0.5582582398498298</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -644,33 +644,33 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <v>0.1081600527156903</v>
+        <v>0.1066346605805567</v>
       </c>
       <c r="G11">
-        <v>0.2856432348925894</v>
+        <v>0.2861105133989315</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
-        <v>15653</v>
+        <v>15713</v>
       </c>
       <c r="C12" s="2">
-        <v>15660</v>
+        <v>15724</v>
       </c>
       <c r="D12">
-        <v>39.33199999999998</v>
+        <v>31.38399999999999</v>
       </c>
       <c r="E12" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>0.04861212299640332</v>
+        <v>0.02971487734092852</v>
       </c>
       <c r="G12">
-        <v>0.1937472456290134</v>
+        <v>0.1462418441494167</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -678,22 +678,22 @@
         <v>27</v>
       </c>
       <c r="B13" s="2">
-        <v>15713</v>
+        <v>15806</v>
       </c>
       <c r="C13" s="2">
-        <v>15724</v>
+        <v>15811</v>
       </c>
       <c r="D13">
-        <v>31.38399999999999</v>
+        <v>22.571</v>
       </c>
       <c r="E13" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>0.03015836092410951</v>
+        <v>0.009139573196886276</v>
       </c>
       <c r="G13">
-        <v>0.153880463254525</v>
+        <v>0.07885075079744772</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -701,367 +701,367 @@
         <v>28</v>
       </c>
       <c r="B14" s="2">
-        <v>15806</v>
+        <v>15835</v>
       </c>
       <c r="C14" s="2">
-        <v>15811</v>
+        <v>15848</v>
       </c>
       <c r="D14">
-        <v>22.571</v>
+        <v>112.1524</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>0.009277443290584473</v>
+        <v>0.1994645934262676</v>
       </c>
       <c r="G14">
-        <v>0.08728300631777551</v>
+        <v>0.398303994245813</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>15835</v>
+        <v>16224</v>
       </c>
       <c r="C15" s="2">
-        <v>15848</v>
+        <v>16313</v>
       </c>
       <c r="D15">
-        <v>112.1524</v>
+        <v>1242.6881</v>
       </c>
       <c r="E15" s="3">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="F15">
-        <v>0.2021592195822816</v>
+        <v>0.9457566608231617</v>
       </c>
       <c r="G15">
-        <v>0.3885655800294499</v>
+        <v>0.9500297753678836</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
-        <v>16224</v>
+        <v>16337</v>
       </c>
       <c r="C16" s="2">
-        <v>16313</v>
+        <v>16383</v>
       </c>
       <c r="D16">
-        <v>1242.6881</v>
+        <v>624.2050999999999</v>
       </c>
       <c r="E16" s="3">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="F16">
-        <v>0.9481003019996344</v>
+        <v>0.7634675228050817</v>
       </c>
       <c r="G16">
-        <v>0.9244601717605664</v>
+        <v>0.828842789320408</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2">
-        <v>16337</v>
+        <v>16440</v>
       </c>
       <c r="C17" s="2">
-        <v>16383</v>
+        <v>16485</v>
       </c>
       <c r="D17">
-        <v>694.0880999999998</v>
+        <v>837.2021999999999</v>
       </c>
       <c r="E17" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17">
-        <v>0.8045463096597101</v>
+        <v>0.8575572222748359</v>
       </c>
       <c r="G17">
-        <v>0.8158020607026952</v>
+        <v>0.8896415316057582</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2">
-        <v>16440</v>
+        <v>17893</v>
       </c>
       <c r="C18" s="2">
-        <v>16485</v>
+        <v>17906</v>
       </c>
       <c r="D18">
-        <v>837.2021999999999</v>
+        <v>204.8097</v>
       </c>
       <c r="E18" s="3">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F18">
-        <v>0.8617027801059054</v>
+        <v>0.3579513138311543</v>
       </c>
       <c r="G18">
-        <v>0.8554042983819239</v>
+        <v>0.5442009201006704</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2">
-        <v>17893</v>
+        <v>17926</v>
       </c>
       <c r="C19" s="2">
-        <v>17906</v>
+        <v>17962</v>
       </c>
       <c r="D19">
-        <v>204.8097</v>
+        <v>804.2808999999997</v>
       </c>
       <c r="E19" s="3">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F19">
-        <v>0.3622483924716228</v>
+        <v>0.8459425121385162</v>
       </c>
       <c r="G19">
-        <v>0.5217061382588084</v>
+        <v>0.8820527201432324</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2">
-        <v>17926</v>
+        <v>18202</v>
       </c>
       <c r="C20" s="2">
-        <v>17962</v>
+        <v>18260</v>
       </c>
       <c r="D20">
-        <v>804.2808999999997</v>
+        <v>316.4437</v>
       </c>
       <c r="E20" s="3">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F20">
-        <v>0.8502483018062038</v>
+        <v>0.5078103694406796</v>
       </c>
       <c r="G20">
-        <v>0.8472421137382453</v>
+        <v>0.6580956936015224</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2">
-        <v>18201</v>
+        <v>18853</v>
       </c>
       <c r="C21" s="2">
-        <v>18260</v>
+        <v>18915</v>
       </c>
       <c r="D21">
-        <v>366.9196999999999</v>
+        <v>1350.9869</v>
       </c>
       <c r="E21" s="3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F21">
-        <v>0.5689966268107939</v>
+        <v>0.9580859440204914</v>
       </c>
       <c r="G21">
-        <v>0.6635694857351503</v>
+        <v>0.9593069643921392</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2">
-        <v>18853</v>
+        <v>19050</v>
       </c>
       <c r="C22" s="2">
-        <v>18915</v>
+        <v>19071</v>
       </c>
       <c r="D22">
-        <v>1352.7269</v>
+        <v>107.963</v>
       </c>
       <c r="E22" s="3">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F22">
-        <v>0.9602209534315229</v>
+        <v>0.1914393391289331</v>
       </c>
       <c r="G22">
-        <v>0.9362544707293097</v>
+        <v>0.3897261427573911</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2">
-        <v>19050</v>
+        <v>19093</v>
       </c>
       <c r="C23" s="2">
-        <v>19071</v>
+        <v>19149</v>
       </c>
       <c r="D23">
-        <v>107.963</v>
+        <v>834.8418999999997</v>
       </c>
       <c r="E23" s="3">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F23">
-        <v>0.19403914657937</v>
+        <v>0.8567544596438812</v>
       </c>
       <c r="G23">
-        <v>0.3807356423171802</v>
+        <v>0.8891156110293185</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2">
-        <v>19093</v>
+        <v>20119</v>
       </c>
       <c r="C24" s="2">
-        <v>19149</v>
+        <v>20144</v>
       </c>
       <c r="D24">
-        <v>834.8418999999997</v>
+        <v>51.249</v>
       </c>
       <c r="E24" s="3">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F24">
-        <v>0.8609115346327063</v>
+        <v>0.07453946335138244</v>
       </c>
       <c r="G24">
-        <v>0.8548359201715583</v>
+        <v>0.2369770746042574</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" s="2">
-        <v>20119</v>
+        <v>20779</v>
       </c>
       <c r="C25" s="2">
-        <v>20144</v>
+        <v>20796</v>
       </c>
       <c r="D25">
-        <v>51.249</v>
+        <v>288.7509</v>
       </c>
       <c r="E25" s="3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F25">
-        <v>0.07562531722016136</v>
+        <v>0.474263305879176</v>
       </c>
       <c r="G25">
-        <v>0.239985814630482</v>
+        <v>0.6338901262144876</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B26" s="2">
-        <v>20778</v>
+        <v>21856</v>
       </c>
       <c r="C26" s="2">
-        <v>20796</v>
+        <v>21924</v>
       </c>
       <c r="D26">
-        <v>300.3779</v>
+        <v>877.4797999999998</v>
       </c>
       <c r="E26" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F26">
-        <v>0.4937893835835638</v>
+        <v>0.8705830231947147</v>
       </c>
       <c r="G26">
-        <v>0.6140807922611057</v>
+        <v>0.8982095297791179</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="2">
-        <v>21855</v>
+        <v>21941</v>
       </c>
       <c r="C27" s="2">
-        <v>21924</v>
+        <v>21959</v>
       </c>
       <c r="D27">
-        <v>934.6727999999998</v>
+        <v>87.87499999999996</v>
       </c>
       <c r="E27" s="3">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="F27">
-        <v>0.8907312083576358</v>
+        <v>0.1518265582411479</v>
       </c>
       <c r="G27">
-        <v>0.8768192473128932</v>
+        <v>0.3447323939459718</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" s="2">
-        <v>21941</v>
+        <v>23008</v>
       </c>
       <c r="C28" s="2">
-        <v>21959</v>
+        <v>23021</v>
       </c>
       <c r="D28">
-        <v>87.87499999999996</v>
+        <v>123.4271</v>
       </c>
       <c r="E28" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F28">
-        <v>0.1539406671236296</v>
+        <v>0.2206690847178242</v>
       </c>
       <c r="G28">
-        <v>0.3395839701541596</v>
+        <v>0.4202451105203601</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B29" s="2">
-        <v>23008</v>
+        <v>23173</v>
       </c>
       <c r="C29" s="2">
-        <v>23021</v>
+        <v>23281</v>
       </c>
       <c r="D29">
-        <v>123.4271</v>
+        <v>1707.1654</v>
       </c>
       <c r="E29" s="3">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F29">
-        <v>0.2236082743795941</v>
+        <v>0.9820505085182674</v>
       </c>
       <c r="G29">
-        <v>0.4085794247861964</v>
+        <v>0.9790308683574415</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1069,45 +1069,45 @@
         <v>77</v>
       </c>
       <c r="B30" s="2">
-        <v>23173</v>
+        <v>23399</v>
       </c>
       <c r="C30" s="2">
-        <v>23281</v>
+        <v>23409</v>
       </c>
       <c r="D30">
-        <v>1707.1654</v>
+        <v>228.5457</v>
       </c>
       <c r="E30" s="3">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="F30">
-        <v>0.9831114846057362</v>
+        <v>0.3932305963275444</v>
       </c>
       <c r="G30">
-        <v>0.962637803873948</v>
+        <v>0.5725112758055888</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="2">
-        <v>23399</v>
+        <v>24893</v>
       </c>
       <c r="C31" s="2">
-        <v>23409</v>
+        <v>24908</v>
       </c>
       <c r="D31">
-        <v>228.5457</v>
+        <v>449.3761</v>
       </c>
       <c r="E31" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F31">
-        <v>0.3978075679190241</v>
+        <v>0.6413479827287305</v>
       </c>
       <c r="G31">
-        <v>0.5476790373044748</v>
+        <v>0.7494890696368285</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1115,22 +1115,22 @@
         <v>80</v>
       </c>
       <c r="B32" s="2">
-        <v>24893</v>
+        <v>24990</v>
       </c>
       <c r="C32" s="2">
-        <v>24908</v>
+        <v>24995</v>
       </c>
       <c r="D32">
-        <v>449.3761</v>
+        <v>32.39729999999999</v>
       </c>
       <c r="E32" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F32">
-        <v>0.6468785181473431</v>
+        <v>0.03205302651103385</v>
       </c>
       <c r="G32">
-        <v>0.7136075400883058</v>
+        <v>0.1521663917107726</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1138,91 +1138,91 @@
         <v>81</v>
       </c>
       <c r="B33" s="2">
-        <v>24990</v>
+        <v>25017</v>
       </c>
       <c r="C33" s="2">
-        <v>24995</v>
+        <v>25025</v>
       </c>
       <c r="D33">
-        <v>32.39729999999999</v>
+        <v>76.91200000000001</v>
       </c>
       <c r="E33" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>0.03253081762341307</v>
+        <v>0.1293953238298451</v>
       </c>
       <c r="G33">
-        <v>0.1596008218379</v>
+        <v>0.3168291233446582</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B34" s="2">
-        <v>25017</v>
+        <v>25050</v>
       </c>
       <c r="C34" s="2">
-        <v>25025</v>
+        <v>25137</v>
       </c>
       <c r="D34">
-        <v>76.91200000000001</v>
+        <v>837.1754999999998</v>
       </c>
       <c r="E34" s="3">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="F34">
-        <v>0.131221721722562</v>
+        <v>0.8575481665316482</v>
       </c>
       <c r="G34">
-        <v>0.3139663895442236</v>
+        <v>0.8896355975826673</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" s="2">
-        <v>25050</v>
+        <v>25167</v>
       </c>
       <c r="C35" s="2">
-        <v>25137</v>
+        <v>25194</v>
       </c>
       <c r="D35">
-        <v>867.5154999999997</v>
+        <v>275.7366</v>
       </c>
       <c r="E35" s="3">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="F35">
-        <v>0.8714734571135947</v>
+        <v>0.457717275547879</v>
       </c>
       <c r="G35">
-        <v>0.8624840692614197</v>
+        <v>0.6217147786638303</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B36" s="2">
-        <v>25167</v>
+        <v>26254</v>
       </c>
       <c r="C36" s="2">
-        <v>25194</v>
+        <v>26284</v>
       </c>
       <c r="D36">
-        <v>280.9065999999999</v>
+        <v>191.5199999999999</v>
       </c>
       <c r="E36" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F36">
-        <v>0.4693957109003474</v>
+        <v>0.3373103019546682</v>
       </c>
       <c r="G36">
-        <v>0.597622476687076</v>
+        <v>0.5270933504118978</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1230,68 +1230,68 @@
         <v>90</v>
       </c>
       <c r="B37" s="2">
-        <v>26254</v>
+        <v>27318</v>
       </c>
       <c r="C37" s="2">
-        <v>26284</v>
+        <v>27327</v>
       </c>
       <c r="D37">
-        <v>206.3999999999999</v>
+        <v>167.3019999999999</v>
       </c>
       <c r="E37" s="3">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F37">
-        <v>0.3646951298689182</v>
+        <v>0.2979744456097492</v>
       </c>
       <c r="G37">
-        <v>0.5235230388332974</v>
+        <v>0.4931981374541199</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B38" s="2">
-        <v>27318</v>
+        <v>28536</v>
       </c>
       <c r="C38" s="2">
-        <v>27327</v>
+        <v>28551</v>
       </c>
       <c r="D38">
-        <v>190.662</v>
+        <v>206.9379999999999</v>
       </c>
       <c r="E38" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F38">
-        <v>0.3400625808621303</v>
+        <v>0.3611966484402241</v>
       </c>
       <c r="G38">
-        <v>0.5050084258931471</v>
+        <v>0.5468523775326646</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B39" s="2">
-        <v>28536</v>
+        <v>28594</v>
       </c>
       <c r="C39" s="2">
-        <v>28551</v>
+        <v>28649</v>
       </c>
       <c r="D39">
-        <v>206.9379999999999</v>
+        <v>417.0256</v>
       </c>
       <c r="E39" s="3">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F39">
-        <v>0.3655207366955044</v>
+        <v>0.612630504525794</v>
       </c>
       <c r="G39">
-        <v>0.5241350671431254</v>
+        <v>0.7303744479483474</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1299,114 +1299,114 @@
         <v>96</v>
       </c>
       <c r="B40" s="2">
-        <v>28594</v>
+        <v>28681</v>
       </c>
       <c r="C40" s="2">
-        <v>28649</v>
+        <v>28686</v>
       </c>
       <c r="D40">
-        <v>417.0256</v>
+        <v>21.61189999999998</v>
       </c>
       <c r="E40" s="3">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="F40">
-        <v>0.6181583820590135</v>
+        <v>0.006874245958007597</v>
       </c>
       <c r="G40">
-        <v>0.6952348218025378</v>
+        <v>0.0679254219378586</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B41" s="2">
-        <v>28681</v>
+        <v>28876</v>
       </c>
       <c r="C41" s="2">
-        <v>28686</v>
+        <v>28962</v>
       </c>
       <c r="D41">
-        <v>21.61189999999998</v>
+        <v>1618.9602</v>
       </c>
       <c r="E41" s="3">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F41">
-        <v>0.006978064107184439</v>
+        <v>0.9778557475387228</v>
       </c>
       <c r="G41">
-        <v>0.07612423856505109</v>
+        <v>0.9753269131873399</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B42" s="2">
-        <v>28876</v>
+        <v>29980</v>
       </c>
       <c r="C42" s="2">
-        <v>28962</v>
+        <v>29986</v>
       </c>
       <c r="D42">
-        <v>1618.9602</v>
+        <v>115.9649999999999</v>
       </c>
       <c r="E42" s="3">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="F42">
-        <v>0.9790982493245757</v>
+        <v>0.2066987959298209</v>
       </c>
       <c r="G42">
-        <v>0.9573910187906602</v>
+        <v>0.4059030220677918</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B43" s="2">
-        <v>29980</v>
+        <v>30732</v>
       </c>
       <c r="C43" s="2">
-        <v>29986</v>
+        <v>30743</v>
       </c>
       <c r="D43">
-        <v>115.9649999999999</v>
+        <v>71.96299999999999</v>
       </c>
       <c r="E43" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F43">
-        <v>0.2094778376096611</v>
+        <v>0.1190758316946686</v>
       </c>
       <c r="G43">
-        <v>0.3954991496770336</v>
+        <v>0.3032419152317545</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B44" s="2">
-        <v>30732</v>
+        <v>31078</v>
       </c>
       <c r="C44" s="2">
-        <v>30743</v>
+        <v>31085</v>
       </c>
       <c r="D44">
-        <v>71.96299999999999</v>
+        <v>36.72899999999994</v>
       </c>
       <c r="E44" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F44">
-        <v>0.1207668742410911</v>
+        <v>0.04198489260751168</v>
       </c>
       <c r="G44">
-        <v>0.3014562894043815</v>
+        <v>0.1753077089840625</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1414,73 +1414,73 @@
         <v>110</v>
       </c>
       <c r="B45" s="2">
-        <v>31078</v>
+        <v>31276</v>
       </c>
       <c r="C45" s="2">
-        <v>31085</v>
+        <v>31291</v>
       </c>
       <c r="D45">
-        <v>36.72899999999994</v>
+        <v>148.5185999999999</v>
       </c>
       <c r="E45" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F45">
-        <v>0.04260744290175839</v>
+        <v>0.2658649534037217</v>
       </c>
       <c r="G45">
-        <v>0.1817918682668252</v>
+        <v>0.4640574824700305</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B46" s="2">
-        <v>31276</v>
+        <v>31316</v>
       </c>
       <c r="C46" s="2">
-        <v>31291</v>
+        <v>31349</v>
       </c>
       <c r="D46">
-        <v>148.5185999999999</v>
+        <v>776.7965999999999</v>
       </c>
       <c r="E46" s="3">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F46">
-        <v>0.2692955914416756</v>
+        <v>0.8355238082620575</v>
       </c>
       <c r="G46">
-        <v>0.4485162646818176</v>
+        <v>0.8752778796710368</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B47" s="2">
-        <v>31316</v>
+        <v>31368</v>
       </c>
       <c r="C47" s="2">
         <v>31429</v>
       </c>
       <c r="D47">
-        <v>3049.523299999999</v>
+        <v>2216.150699999999</v>
       </c>
       <c r="E47" s="3">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="F47">
-        <v>0.999341607234423</v>
+        <v>0.9946576265977903</v>
       </c>
       <c r="G47">
-        <v>0.9945352039612192</v>
+        <v>0.9916763072682774</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B48" s="2">
         <v>31628</v>
@@ -1495,15 +1495,15 @@
         <v>10</v>
       </c>
       <c r="F48">
-        <v>0.08223206784532816</v>
+        <v>0.08105557383953559</v>
       </c>
       <c r="G48">
-        <v>0.2499503206817004</v>
+        <v>0.2476526792671847</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B49" s="2">
         <v>31860</v>
@@ -1518,15 +1518,15 @@
         <v>9</v>
       </c>
       <c r="F49">
-        <v>0.0274164836441946</v>
+        <v>0.02701275604693774</v>
       </c>
       <c r="G49">
-        <v>0.1469733665421691</v>
+        <v>0.1391124176889688</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B50" s="2">
         <v>32149</v>
@@ -1541,15 +1541,15 @@
         <v>8</v>
       </c>
       <c r="F50">
-        <v>0.2708437645794881</v>
+        <v>0.2673971978931409</v>
       </c>
       <c r="G50">
-        <v>0.4498149400260603</v>
+        <v>0.4654821027277461</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B51" s="2">
         <v>32230</v>
@@ -1564,15 +1564,15 @@
         <v>8</v>
       </c>
       <c r="F51">
-        <v>0.1166941311662669</v>
+        <v>0.1150563140387724</v>
       </c>
       <c r="G51">
-        <v>0.2964403608000822</v>
+        <v>0.2978023266586223</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B52" s="2">
         <v>32392</v>
@@ -1587,38 +1587,38 @@
         <v>11</v>
       </c>
       <c r="F52">
-        <v>0.07738938980995133</v>
+        <v>0.07627926581669144</v>
       </c>
       <c r="G52">
-        <v>0.242687764916975</v>
+        <v>0.2398689454564275</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B53" s="2">
-        <v>32472</v>
+        <v>32473</v>
       </c>
       <c r="C53" s="2">
         <v>32496</v>
       </c>
       <c r="D53">
-        <v>395.6708</v>
+        <v>393.7257999999999</v>
       </c>
       <c r="E53" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F53">
-        <v>0.5979316150322967</v>
+        <v>0.5905332398950756</v>
       </c>
       <c r="G53">
-        <v>0.6822501524212784</v>
+        <v>0.7154922024750631</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B54" s="2">
         <v>33254</v>
@@ -1633,15 +1633,15 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>0.4353764714259392</v>
+        <v>0.4305376493404496</v>
       </c>
       <c r="G54">
-        <v>0.5742294314373176</v>
+        <v>0.6013373549114701</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B55" s="2">
         <v>33298</v>
@@ -1656,15 +1656,15 @@
         <v>6</v>
       </c>
       <c r="F55">
-        <v>0.0281120754002282</v>
+        <v>0.02769825125697833</v>
       </c>
       <c r="G55">
-        <v>0.1487580341324217</v>
+        <v>0.1409519234185422</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B56" s="2">
         <v>34620</v>
@@ -1673,21 +1673,21 @@
         <v>34626</v>
       </c>
       <c r="D56">
-        <v>138.384</v>
+        <v>126.224</v>
       </c>
       <c r="E56" s="3">
         <v>7</v>
       </c>
       <c r="F56">
-        <v>0.2511751142908956</v>
+        <v>0.2258417237418313</v>
       </c>
       <c r="G56">
-        <v>0.4330661913757727</v>
+        <v>0.4254510017621516</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B57" s="2">
         <v>34956</v>
@@ -1705,12 +1705,12 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>5.360240735885756e-09</v>
+        <v>1.066765055290548e-09</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B58" s="2">
         <v>38053</v>
@@ -1725,15 +1725,15 @@
         <v>6</v>
       </c>
       <c r="F58">
-        <v>0.3304124016309657</v>
+        <v>0.3263908762968514</v>
       </c>
       <c r="G58">
-        <v>0.4976118713576688</v>
+        <v>0.5178631295663778</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B59" s="2">
         <v>38399</v>
@@ -1748,15 +1748,15 @@
         <v>35</v>
       </c>
       <c r="F59">
-        <v>0.5740334050161526</v>
+        <v>0.5685716539440144</v>
       </c>
       <c r="G59">
-        <v>0.6668321307938282</v>
+        <v>0.7005311412818482</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B60" s="2">
         <v>38846</v>
@@ -1771,15 +1771,15 @@
         <v>116</v>
       </c>
       <c r="F60">
-        <v>0.9860180866820041</v>
+        <v>0.9850977498971016</v>
       </c>
       <c r="G60">
-        <v>0.9667192086187949</v>
+        <v>0.9818318788826053</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B61" s="2">
         <v>39903</v>
@@ -1794,15 +1794,15 @@
         <v>76</v>
       </c>
       <c r="F61">
-        <v>0.6698344049741851</v>
+        <v>0.6643267188709945</v>
       </c>
       <c r="G61">
-        <v>0.7282711886110903</v>
+        <v>0.7646245669066273</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B62" s="2">
         <v>42998</v>
@@ -1817,15 +1817,15 @@
         <v>10</v>
       </c>
       <c r="F62">
-        <v>0.09155783402842115</v>
+        <v>0.09025459002236524</v>
       </c>
       <c r="G62">
-        <v>0.2633575344163721</v>
+        <v>0.262060785081262</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B63" s="2">
         <v>43857</v>
@@ -1840,33 +1840,33 @@
         <v>133</v>
       </c>
       <c r="F63">
-        <v>0.9997613681125073</v>
+        <v>0.9997297248222479</v>
       </c>
       <c r="G63">
-        <v>0.9969471187609823</v>
+        <v>0.9990851727302384</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B64" s="2">
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="C64" s="2">
-        <v>44132</v>
+        <v>44149</v>
       </c>
       <c r="D64">
-        <v>456.034166</v>
+        <v>1265.276129</v>
       </c>
       <c r="E64" s="3">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F64">
-        <v>0.6525158488498377</v>
+        <v>0.9485969141592233</v>
       </c>
       <c r="G64">
-        <v>0.717208975706084</v>
+        <v>0.9521333342964892</v>
       </c>
     </row>
   </sheetData>

--- a/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
+++ b/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
@@ -437,10 +437,10 @@
         <v>29</v>
       </c>
       <c r="F2">
-        <v>0.4549899112058158</v>
+        <v>0.4497624270928734</v>
       </c>
       <c r="G2">
-        <v>0.5877839005003375</v>
+        <v>0.583211631453613</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -460,10 +460,10 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>0.1184034814077359</v>
+        <v>0.1166544299497985</v>
       </c>
       <c r="G3">
-        <v>0.2985558460348083</v>
+        <v>0.2670230345519816</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -483,10 +483,10 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>0.04913628309501719</v>
+        <v>0.04838249781007036</v>
       </c>
       <c r="G4">
-        <v>0.1947541922786281</v>
+        <v>0.1618463038080576</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -506,10 +506,10 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>0.03979632654685609</v>
+        <v>0.03918285617721787</v>
       </c>
       <c r="G5">
-        <v>0.1758994720053409</v>
+        <v>0.1435943466901877</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -529,10 +529,10 @@
         <v>41</v>
       </c>
       <c r="F6">
-        <v>0.07816867702303108</v>
+        <v>0.0769878760859207</v>
       </c>
       <c r="G6">
-        <v>0.2438715209213698</v>
+        <v>0.2107271651128375</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -546,16 +546,16 @@
         <v>12426</v>
       </c>
       <c r="D7">
-        <v>268.5041999999999</v>
+        <v>268.6341999999999</v>
       </c>
       <c r="E7" s="3">
         <v>25</v>
       </c>
       <c r="F7">
-        <v>0.4532486506434048</v>
+        <v>0.4482028424026369</v>
       </c>
       <c r="G7">
-        <v>0.5865882077236391</v>
+        <v>0.5820074908747243</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -575,10 +575,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>0.00101224417109956</v>
+        <v>0.000996332020665499</v>
       </c>
       <c r="G8">
-        <v>0.03013978862330371</v>
+        <v>0.01797383552256879</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -592,16 +592,16 @@
         <v>12750</v>
       </c>
       <c r="D9">
-        <v>332.4859999999999</v>
+        <v>294.1559999999998</v>
       </c>
       <c r="E9" s="3">
         <v>18</v>
       </c>
       <c r="F9">
-        <v>0.5315895459644953</v>
+        <v>0.48071001669053</v>
       </c>
       <c r="G9">
-        <v>0.6391573979038417</v>
+        <v>0.606837930150117</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -621,10 +621,10 @@
         <v>34</v>
       </c>
       <c r="F10">
-        <v>0.3797352479905387</v>
+        <v>0.3750585244148172</v>
       </c>
       <c r="G10">
-        <v>0.5345917603318608</v>
+        <v>0.5238240661342346</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -644,33 +644,33 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <v>0.1081600527156903</v>
+        <v>0.1065530214443963</v>
       </c>
       <c r="G11">
-        <v>0.2856432348925894</v>
+        <v>0.2535750374360492</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
-        <v>15653</v>
+        <v>15713</v>
       </c>
       <c r="C12" s="2">
-        <v>15660</v>
+        <v>15724</v>
       </c>
       <c r="D12">
-        <v>39.33199999999998</v>
+        <v>31.38399999999999</v>
       </c>
       <c r="E12" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>0.04861212299640332</v>
+        <v>0.0296911576981334</v>
       </c>
       <c r="G12">
-        <v>0.1937472456290134</v>
+        <v>0.1226981335224229</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -678,22 +678,22 @@
         <v>27</v>
       </c>
       <c r="B13" s="2">
-        <v>15713</v>
+        <v>15806</v>
       </c>
       <c r="C13" s="2">
-        <v>15724</v>
+        <v>15811</v>
       </c>
       <c r="D13">
-        <v>31.38399999999999</v>
+        <v>22.571</v>
       </c>
       <c r="E13" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>0.03015836092410951</v>
+        <v>0.00913220047381649</v>
       </c>
       <c r="G13">
-        <v>0.153880463254525</v>
+        <v>0.06293596189165684</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -701,367 +701,367 @@
         <v>28</v>
       </c>
       <c r="B14" s="2">
-        <v>15806</v>
+        <v>15835</v>
       </c>
       <c r="C14" s="2">
-        <v>15811</v>
+        <v>15848</v>
       </c>
       <c r="D14">
-        <v>22.571</v>
+        <v>112.1524</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>0.009277443290584473</v>
+        <v>0.1993202504546966</v>
       </c>
       <c r="G14">
-        <v>0.08728300631777551</v>
+        <v>0.3629156250756053</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>15835</v>
+        <v>16224</v>
       </c>
       <c r="C15" s="2">
-        <v>15848</v>
+        <v>16313</v>
       </c>
       <c r="D15">
-        <v>112.1524</v>
+        <v>1242.6881</v>
       </c>
       <c r="E15" s="3">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="F15">
-        <v>0.2021592195822816</v>
+        <v>0.9456284024958923</v>
       </c>
       <c r="G15">
-        <v>0.3885655800294499</v>
+        <v>0.9419217847061785</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
-        <v>16224</v>
+        <v>16337</v>
       </c>
       <c r="C16" s="2">
-        <v>16313</v>
+        <v>16383</v>
       </c>
       <c r="D16">
-        <v>1242.6881</v>
+        <v>624.4150999999999</v>
       </c>
       <c r="E16" s="3">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="F16">
-        <v>0.9481003019996344</v>
+        <v>0.7633092970484542</v>
       </c>
       <c r="G16">
-        <v>0.9244601717605664</v>
+        <v>0.8082980040672831</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2">
-        <v>16337</v>
+        <v>16440</v>
       </c>
       <c r="C17" s="2">
-        <v>16383</v>
+        <v>16485</v>
       </c>
       <c r="D17">
-        <v>694.0880999999998</v>
+        <v>837.2021999999999</v>
       </c>
       <c r="E17" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17">
-        <v>0.8045463096597101</v>
+        <v>0.8573320838148957</v>
       </c>
       <c r="G17">
-        <v>0.8158020607026952</v>
+        <v>0.8745850242944544</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2">
-        <v>16440</v>
+        <v>17893</v>
       </c>
       <c r="C18" s="2">
-        <v>16485</v>
+        <v>17906</v>
       </c>
       <c r="D18">
-        <v>837.2021999999999</v>
+        <v>204.8097</v>
       </c>
       <c r="E18" s="3">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F18">
-        <v>0.8617027801059054</v>
+        <v>0.357720726905165</v>
       </c>
       <c r="G18">
-        <v>0.8554042983819239</v>
+        <v>0.5094681699639111</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2">
-        <v>17893</v>
+        <v>17926</v>
       </c>
       <c r="C19" s="2">
-        <v>17906</v>
+        <v>17962</v>
       </c>
       <c r="D19">
-        <v>204.8097</v>
+        <v>804.2808999999997</v>
       </c>
       <c r="E19" s="3">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F19">
-        <v>0.3622483924716228</v>
+        <v>0.845708817361136</v>
       </c>
       <c r="G19">
-        <v>0.5217061382588084</v>
+        <v>0.8662344930961511</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2">
-        <v>17926</v>
+        <v>18202</v>
       </c>
       <c r="C20" s="2">
-        <v>17962</v>
+        <v>18260</v>
       </c>
       <c r="D20">
-        <v>804.2808999999997</v>
+        <v>318.8036999999999</v>
       </c>
       <c r="E20" s="3">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F20">
-        <v>0.8502483018062038</v>
+        <v>0.510284821025109</v>
       </c>
       <c r="G20">
-        <v>0.8472421137382453</v>
+        <v>0.6289816493726483</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2">
-        <v>18201</v>
+        <v>18853</v>
       </c>
       <c r="C21" s="2">
-        <v>18260</v>
+        <v>18915</v>
       </c>
       <c r="D21">
-        <v>366.9196999999999</v>
+        <v>1350.9869</v>
       </c>
       <c r="E21" s="3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F21">
-        <v>0.5689966268107939</v>
+        <v>0.9579780579864435</v>
       </c>
       <c r="G21">
-        <v>0.6635694857351503</v>
+        <v>0.9524490365739319</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2">
-        <v>18853</v>
+        <v>19050</v>
       </c>
       <c r="C22" s="2">
-        <v>18915</v>
+        <v>19071</v>
       </c>
       <c r="D22">
-        <v>1352.7269</v>
+        <v>107.963</v>
       </c>
       <c r="E22" s="3">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F22">
-        <v>0.9602209534315229</v>
+        <v>0.1913000863918579</v>
       </c>
       <c r="G22">
-        <v>0.9362544707293097</v>
+        <v>0.3544450958504595</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2">
-        <v>19050</v>
+        <v>19093</v>
       </c>
       <c r="C23" s="2">
-        <v>19071</v>
+        <v>19149</v>
       </c>
       <c r="D23">
-        <v>107.963</v>
+        <v>834.8418999999997</v>
       </c>
       <c r="E23" s="3">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F23">
-        <v>0.19403914657937</v>
+        <v>0.8565287057870583</v>
       </c>
       <c r="G23">
-        <v>0.3807356423171802</v>
+        <v>0.8740056355910856</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2">
-        <v>19093</v>
+        <v>20119</v>
       </c>
       <c r="C24" s="2">
-        <v>19149</v>
+        <v>20144</v>
       </c>
       <c r="D24">
-        <v>834.8418999999997</v>
+        <v>51.249</v>
       </c>
       <c r="E24" s="3">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F24">
-        <v>0.8609115346327063</v>
+        <v>0.07448136471492658</v>
       </c>
       <c r="G24">
-        <v>0.8548359201715583</v>
+        <v>0.2067969042203506</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" s="2">
-        <v>20119</v>
+        <v>20779</v>
       </c>
       <c r="C25" s="2">
-        <v>20144</v>
+        <v>20796</v>
       </c>
       <c r="D25">
-        <v>51.249</v>
+        <v>290.9009</v>
       </c>
       <c r="E25" s="3">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F25">
-        <v>0.07562531722016136</v>
+        <v>0.4766729727068997</v>
       </c>
       <c r="G25">
-        <v>0.239985814630482</v>
+        <v>0.6037836627704034</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B26" s="2">
-        <v>20778</v>
+        <v>21856</v>
       </c>
       <c r="C26" s="2">
-        <v>20796</v>
+        <v>21924</v>
       </c>
       <c r="D26">
-        <v>300.3779</v>
+        <v>880.0698</v>
       </c>
       <c r="E26" s="3">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F26">
-        <v>0.4937893835835638</v>
+        <v>0.8711647041920824</v>
       </c>
       <c r="G26">
-        <v>0.6140807922611057</v>
+        <v>0.8846197569814912</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="2">
-        <v>21855</v>
+        <v>21941</v>
       </c>
       <c r="C27" s="2">
-        <v>21924</v>
+        <v>21959</v>
       </c>
       <c r="D27">
-        <v>934.6727999999998</v>
+        <v>87.87499999999996</v>
       </c>
       <c r="E27" s="3">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="F27">
-        <v>0.8907312083576358</v>
+        <v>0.1517133640449581</v>
       </c>
       <c r="G27">
-        <v>0.8768192473128932</v>
+        <v>0.3103036341075024</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" s="2">
-        <v>21941</v>
+        <v>23008</v>
       </c>
       <c r="C28" s="2">
-        <v>21959</v>
+        <v>23021</v>
       </c>
       <c r="D28">
-        <v>87.87499999999996</v>
+        <v>123.4271</v>
       </c>
       <c r="E28" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F28">
-        <v>0.1539406671236296</v>
+        <v>0.2205116074940484</v>
       </c>
       <c r="G28">
-        <v>0.3395839701541596</v>
+        <v>0.3846594900792968</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B29" s="2">
-        <v>23008</v>
+        <v>23173</v>
       </c>
       <c r="C29" s="2">
-        <v>23021</v>
+        <v>23281</v>
       </c>
       <c r="D29">
-        <v>123.4271</v>
+        <v>1707.1654</v>
       </c>
       <c r="E29" s="3">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F29">
-        <v>0.2236082743795941</v>
+        <v>0.981991934849938</v>
       </c>
       <c r="G29">
-        <v>0.4085794247861964</v>
+        <v>0.9750895674191904</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1069,45 +1069,45 @@
         <v>77</v>
       </c>
       <c r="B30" s="2">
-        <v>23173</v>
+        <v>23399</v>
       </c>
       <c r="C30" s="2">
-        <v>23281</v>
+        <v>23409</v>
       </c>
       <c r="D30">
-        <v>1707.1654</v>
+        <v>228.5457</v>
       </c>
       <c r="E30" s="3">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="F30">
-        <v>0.9831114846057362</v>
+        <v>0.3929848792680644</v>
       </c>
       <c r="G30">
-        <v>0.962637803873948</v>
+        <v>0.5384207514093132</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="2">
-        <v>23399</v>
+        <v>24893</v>
       </c>
       <c r="C31" s="2">
-        <v>23409</v>
+        <v>24908</v>
       </c>
       <c r="D31">
-        <v>228.5457</v>
+        <v>449.3761</v>
       </c>
       <c r="E31" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F31">
-        <v>0.3978075679190241</v>
+        <v>0.6410498265224109</v>
       </c>
       <c r="G31">
-        <v>0.5476790373044748</v>
+        <v>0.7231342974273985</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1115,22 +1115,22 @@
         <v>80</v>
       </c>
       <c r="B32" s="2">
-        <v>24893</v>
+        <v>24990</v>
       </c>
       <c r="C32" s="2">
-        <v>24908</v>
+        <v>24995</v>
       </c>
       <c r="D32">
-        <v>449.3761</v>
+        <v>32.39729999999999</v>
       </c>
       <c r="E32" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F32">
-        <v>0.6468785181473431</v>
+        <v>0.03202747144381692</v>
       </c>
       <c r="G32">
-        <v>0.7136075400883058</v>
+        <v>0.1280805356504572</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1138,91 +1138,91 @@
         <v>81</v>
       </c>
       <c r="B33" s="2">
-        <v>24990</v>
+        <v>25017</v>
       </c>
       <c r="C33" s="2">
-        <v>24995</v>
+        <v>25025</v>
       </c>
       <c r="D33">
-        <v>32.39729999999999</v>
+        <v>76.91200000000001</v>
       </c>
       <c r="E33" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>0.03253081762341307</v>
+        <v>0.1292975547017991</v>
       </c>
       <c r="G33">
-        <v>0.1596008218379</v>
+        <v>0.2831853918049956</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B34" s="2">
-        <v>25017</v>
+        <v>25050</v>
       </c>
       <c r="C34" s="2">
-        <v>25025</v>
+        <v>25137</v>
       </c>
       <c r="D34">
-        <v>76.91200000000001</v>
+        <v>837.1754999999998</v>
       </c>
       <c r="E34" s="3">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="F34">
-        <v>0.131221721722562</v>
+        <v>0.8573230211091631</v>
       </c>
       <c r="G34">
-        <v>0.3139663895442236</v>
+        <v>0.874578486410889</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" s="2">
-        <v>25050</v>
+        <v>25167</v>
       </c>
       <c r="C35" s="2">
-        <v>25137</v>
+        <v>25194</v>
       </c>
       <c r="D35">
-        <v>867.5154999999997</v>
+        <v>275.8666</v>
       </c>
       <c r="E35" s="3">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="F35">
-        <v>0.8714734571135947</v>
+        <v>0.4576160458807945</v>
       </c>
       <c r="G35">
-        <v>0.8624840692614197</v>
+        <v>0.5892549557145664</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B36" s="2">
-        <v>25167</v>
+        <v>26254</v>
       </c>
       <c r="C36" s="2">
-        <v>25194</v>
+        <v>26284</v>
       </c>
       <c r="D36">
-        <v>280.9065999999999</v>
+        <v>193.4199999999999</v>
       </c>
       <c r="E36" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F36">
-        <v>0.4693957109003474</v>
+        <v>0.340079044862945</v>
       </c>
       <c r="G36">
-        <v>0.597622476687076</v>
+        <v>0.4945991680100593</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1230,68 +1230,68 @@
         <v>90</v>
       </c>
       <c r="B37" s="2">
-        <v>26254</v>
+        <v>27318</v>
       </c>
       <c r="C37" s="2">
-        <v>26284</v>
+        <v>27327</v>
       </c>
       <c r="D37">
-        <v>206.3999999999999</v>
+        <v>167.3019999999999</v>
       </c>
       <c r="E37" s="3">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F37">
-        <v>0.3646951298689182</v>
+        <v>0.2977731423301494</v>
       </c>
       <c r="G37">
-        <v>0.5235230388332974</v>
+        <v>0.4577218427289564</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B38" s="2">
-        <v>27318</v>
+        <v>28536</v>
       </c>
       <c r="C38" s="2">
-        <v>27327</v>
+        <v>28551</v>
       </c>
       <c r="D38">
-        <v>190.662</v>
+        <v>206.9379999999999</v>
       </c>
       <c r="E38" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F38">
-        <v>0.3400625808621303</v>
+        <v>0.3609646027657382</v>
       </c>
       <c r="G38">
-        <v>0.5050084258931471</v>
+        <v>0.5121728706348124</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B39" s="2">
-        <v>28536</v>
+        <v>28594</v>
       </c>
       <c r="C39" s="2">
-        <v>28551</v>
+        <v>28649</v>
       </c>
       <c r="D39">
-        <v>206.9379999999999</v>
+        <v>417.0256</v>
       </c>
       <c r="E39" s="3">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F39">
-        <v>0.3655207366955044</v>
+        <v>0.6123326743672548</v>
       </c>
       <c r="G39">
-        <v>0.5241350671431254</v>
+        <v>0.7028643651667509</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1299,114 +1299,114 @@
         <v>96</v>
       </c>
       <c r="B40" s="2">
-        <v>28594</v>
+        <v>28681</v>
       </c>
       <c r="C40" s="2">
-        <v>28649</v>
+        <v>28686</v>
       </c>
       <c r="D40">
-        <v>417.0256</v>
+        <v>21.61189999999998</v>
       </c>
       <c r="E40" s="3">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="F40">
-        <v>0.6181583820590135</v>
+        <v>0.006868694293467731</v>
       </c>
       <c r="G40">
-        <v>0.6952348218025378</v>
+        <v>0.05356790876107358</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B41" s="2">
-        <v>28681</v>
+        <v>28876</v>
       </c>
       <c r="C41" s="2">
-        <v>28686</v>
+        <v>28962</v>
       </c>
       <c r="D41">
-        <v>21.61189999999998</v>
+        <v>1618.9602</v>
       </c>
       <c r="E41" s="3">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="F41">
-        <v>0.006978064107184439</v>
+        <v>0.9777872661513544</v>
       </c>
       <c r="G41">
-        <v>0.07612423856505109</v>
+        <v>0.9708045658414701</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B42" s="2">
-        <v>28876</v>
+        <v>29980</v>
       </c>
       <c r="C42" s="2">
-        <v>28962</v>
+        <v>29986</v>
       </c>
       <c r="D42">
-        <v>1618.9602</v>
+        <v>115.9649999999999</v>
       </c>
       <c r="E42" s="3">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="F42">
-        <v>0.9790982493245757</v>
+        <v>0.2065499202916276</v>
       </c>
       <c r="G42">
-        <v>0.9573910187906602</v>
+        <v>0.3704338586839416</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B43" s="2">
-        <v>29980</v>
+        <v>30732</v>
       </c>
       <c r="C43" s="2">
-        <v>29986</v>
+        <v>30743</v>
       </c>
       <c r="D43">
-        <v>115.9649999999999</v>
+        <v>71.96299999999999</v>
       </c>
       <c r="E43" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F43">
-        <v>0.2094778376096611</v>
+        <v>0.1189853168023421</v>
       </c>
       <c r="G43">
-        <v>0.3954991496770336</v>
+        <v>0.2700558149369048</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B44" s="2">
-        <v>30732</v>
+        <v>31078</v>
       </c>
       <c r="C44" s="2">
-        <v>30743</v>
+        <v>31085</v>
       </c>
       <c r="D44">
-        <v>71.96299999999999</v>
+        <v>36.72899999999994</v>
       </c>
       <c r="E44" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F44">
-        <v>0.1207668742410911</v>
+        <v>0.04195159222996678</v>
       </c>
       <c r="G44">
-        <v>0.3014562894043815</v>
+        <v>0.1492645928268142</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1414,73 +1414,73 @@
         <v>110</v>
       </c>
       <c r="B45" s="2">
-        <v>31078</v>
+        <v>31276</v>
       </c>
       <c r="C45" s="2">
-        <v>31085</v>
+        <v>31291</v>
       </c>
       <c r="D45">
-        <v>36.72899999999994</v>
+        <v>148.5185999999999</v>
       </c>
       <c r="E45" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F45">
-        <v>0.04260744290175839</v>
+        <v>0.2656810575134511</v>
       </c>
       <c r="G45">
-        <v>0.1817918682668252</v>
+        <v>0.4283998018646291</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B46" s="2">
-        <v>31276</v>
+        <v>31316</v>
       </c>
       <c r="C46" s="2">
-        <v>31291</v>
+        <v>31349</v>
       </c>
       <c r="D46">
-        <v>148.5185999999999</v>
+        <v>776.7965999999999</v>
       </c>
       <c r="E46" s="3">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F46">
-        <v>0.2692955914416756</v>
+        <v>0.8352830445366182</v>
       </c>
       <c r="G46">
-        <v>0.4485162646818176</v>
+        <v>0.8587969425128519</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B47" s="2">
-        <v>31316</v>
+        <v>31368</v>
       </c>
       <c r="C47" s="2">
         <v>31429</v>
       </c>
       <c r="D47">
-        <v>3049.523299999999</v>
+        <v>2220.830699999999</v>
       </c>
       <c r="E47" s="3">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="F47">
-        <v>0.999341607234423</v>
+        <v>0.9946943301726106</v>
       </c>
       <c r="G47">
-        <v>0.9945352039612192</v>
+        <v>0.9899814689985704</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B48" s="2">
         <v>31628</v>
@@ -1495,15 +1495,15 @@
         <v>10</v>
       </c>
       <c r="F48">
-        <v>0.08223206784532816</v>
+        <v>0.08099262195035761</v>
       </c>
       <c r="G48">
-        <v>0.2499503206817004</v>
+        <v>0.2168956556898622</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B49" s="2">
         <v>31860</v>
@@ -1518,15 +1518,15 @@
         <v>9</v>
       </c>
       <c r="F49">
-        <v>0.0274164836441946</v>
+        <v>0.02699116322552361</v>
       </c>
       <c r="G49">
-        <v>0.1469733665421691</v>
+        <v>0.1162448706632621</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B50" s="2">
         <v>32149</v>
@@ -1541,15 +1541,15 @@
         <v>8</v>
       </c>
       <c r="F50">
-        <v>0.2708437645794881</v>
+        <v>0.2672124450845761</v>
       </c>
       <c r="G50">
-        <v>0.4498149400260603</v>
+        <v>0.4298290931267204</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B51" s="2">
         <v>32230</v>
@@ -1564,15 +1564,15 @@
         <v>8</v>
       </c>
       <c r="F51">
-        <v>0.1166941311662669</v>
+        <v>0.1149686512798604</v>
       </c>
       <c r="G51">
-        <v>0.2964403608000822</v>
+        <v>0.2648137770155827</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B52" s="2">
         <v>32392</v>
@@ -1587,38 +1587,38 @@
         <v>11</v>
       </c>
       <c r="F52">
-        <v>0.07738938980995133</v>
+        <v>0.07621986771458736</v>
       </c>
       <c r="G52">
-        <v>0.242687764916975</v>
+        <v>0.2095287686441417</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B53" s="2">
-        <v>32472</v>
+        <v>32473</v>
       </c>
       <c r="C53" s="2">
         <v>32496</v>
       </c>
       <c r="D53">
-        <v>395.6708</v>
+        <v>398.4058</v>
       </c>
       <c r="E53" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F53">
-        <v>0.5979316150322967</v>
+        <v>0.5947738532300298</v>
       </c>
       <c r="G53">
-        <v>0.6822501524212784</v>
+        <v>0.6903780281772682</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B54" s="2">
         <v>33254</v>
@@ -1633,15 +1633,15 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>0.4353764714259392</v>
+        <v>0.4302777432441658</v>
       </c>
       <c r="G54">
-        <v>0.5742294314373176</v>
+        <v>0.5680673812850833</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B55" s="2">
         <v>33298</v>
@@ -1656,15 +1656,15 @@
         <v>6</v>
       </c>
       <c r="F55">
-        <v>0.0281120754002282</v>
+        <v>0.02767611831101933</v>
       </c>
       <c r="G55">
-        <v>0.1487580341324217</v>
+        <v>0.1179073740545302</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B56" s="2">
         <v>34620</v>
@@ -1673,21 +1673,21 @@
         <v>34626</v>
       </c>
       <c r="D56">
-        <v>138.384</v>
+        <v>126.224</v>
       </c>
       <c r="E56" s="3">
         <v>7</v>
       </c>
       <c r="F56">
-        <v>0.2511751142908956</v>
+        <v>0.2256811129550983</v>
       </c>
       <c r="G56">
-        <v>0.4330661913757727</v>
+        <v>0.3898346194400232</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B57" s="2">
         <v>34956</v>
@@ -1705,12 +1705,12 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>5.360240735885756e-09</v>
+        <v>1.98221359088958E-10</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B58" s="2">
         <v>38053</v>
@@ -1725,15 +1725,15 @@
         <v>6</v>
       </c>
       <c r="F58">
-        <v>0.3304124016309657</v>
+        <v>0.3261751584935229</v>
       </c>
       <c r="G58">
-        <v>0.4976118713576688</v>
+        <v>0.4826794790706862</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B59" s="2">
         <v>38399</v>
@@ -1748,15 +1748,15 @@
         <v>35</v>
       </c>
       <c r="F59">
-        <v>0.5740334050161526</v>
+        <v>0.5682776389402372</v>
       </c>
       <c r="G59">
-        <v>0.6668321307938282</v>
+        <v>0.6713784180556901</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B60" s="2">
         <v>38846</v>
@@ -1771,15 +1771,15 @@
         <v>116</v>
       </c>
       <c r="F60">
-        <v>0.9860180866820041</v>
+        <v>0.9850468657746091</v>
       </c>
       <c r="G60">
-        <v>0.9667192086187949</v>
+        <v>0.9783431514451235</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B61" s="2">
         <v>39903</v>
@@ -1794,15 +1794,15 @@
         <v>76</v>
       </c>
       <c r="F61">
-        <v>0.6698344049741851</v>
+        <v>0.6640296378983974</v>
       </c>
       <c r="G61">
-        <v>0.7282711886110903</v>
+        <v>0.7392436674590851</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B62" s="2">
         <v>42998</v>
@@ -1817,15 +1817,15 @@
         <v>10</v>
       </c>
       <c r="F62">
-        <v>0.09155783402842115</v>
+        <v>0.09018485038928406</v>
       </c>
       <c r="G62">
-        <v>0.2633575344163721</v>
+        <v>0.2305839303185548</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B63" s="2">
         <v>43857</v>
@@ -1840,33 +1840,33 @@
         <v>133</v>
       </c>
       <c r="F63">
-        <v>0.9997613681125073</v>
+        <v>0.9997279192595032</v>
       </c>
       <c r="G63">
-        <v>0.9969471187609823</v>
+        <v>0.9988373738515592</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B64" s="2">
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="C64" s="2">
-        <v>44132</v>
+        <v>44149</v>
       </c>
       <c r="D64">
-        <v>456.034166</v>
+        <v>1266.696129</v>
       </c>
       <c r="E64" s="3">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F64">
-        <v>0.6525158488498377</v>
+        <v>0.9486469040719924</v>
       </c>
       <c r="G64">
-        <v>0.717208975706084</v>
+        <v>0.9444494748564745</v>
       </c>
     </row>
   </sheetData>

--- a/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
+++ b/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
@@ -394,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,10 +437,10 @@
         <v>29</v>
       </c>
       <c r="F2">
-        <v>0.4497624270928734</v>
+        <v>0.4568096549801078</v>
       </c>
       <c r="G2">
-        <v>0.583211631453613</v>
+        <v>0.5772092621241911</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -460,10 +460,10 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <v>0.1166544299497985</v>
+        <v>0.1279093388556816</v>
       </c>
       <c r="G3">
-        <v>0.2670230345519816</v>
+        <v>0.275546683333624</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -483,10 +483,10 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>0.04838249781007036</v>
+        <v>0.06049734023545527</v>
       </c>
       <c r="G4">
-        <v>0.1618463038080576</v>
+        <v>0.1800906938870794</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -506,10 +506,10 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>0.03918285617721787</v>
+        <v>0.05141352097905617</v>
       </c>
       <c r="G5">
-        <v>0.1435943466901877</v>
+        <v>0.164247821451987</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -529,38 +529,38 @@
         <v>41</v>
       </c>
       <c r="F6">
-        <v>0.0769878760859207</v>
+        <v>0.08874250001092787</v>
       </c>
       <c r="G6">
-        <v>0.2107271651128375</v>
+        <v>0.2237909634266858</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
-        <v>12402</v>
+        <v>12400</v>
       </c>
       <c r="C7" s="2">
         <v>12426</v>
       </c>
       <c r="D7">
-        <v>268.6341999999999</v>
+        <v>275.4671999999999</v>
       </c>
       <c r="E7" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>0.4482028424026369</v>
+        <v>0.4640546959680871</v>
       </c>
       <c r="G7">
-        <v>0.5820074908747243</v>
+        <v>0.5827004109968658</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>12666</v>
@@ -575,15 +575,15 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>0.000996332020665499</v>
+        <v>0.01370762977572793</v>
       </c>
       <c r="G8">
-        <v>0.01797383552256879</v>
+        <v>0.07788272153214239</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>12733</v>
@@ -598,15 +598,15 @@
         <v>18</v>
       </c>
       <c r="F9">
-        <v>0.48071001669053</v>
+        <v>0.4873650951241657</v>
       </c>
       <c r="G9">
-        <v>0.606837930150117</v>
+        <v>0.6002032269490274</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
         <v>12912</v>
@@ -621,15 +621,15 @@
         <v>34</v>
       </c>
       <c r="F10">
-        <v>0.3750585244148172</v>
+        <v>0.3830513743876297</v>
       </c>
       <c r="G10">
-        <v>0.5238240661342346</v>
+        <v>0.5196626102258637</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
         <v>14692</v>
@@ -644,15 +644,15 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <v>0.1065530214443963</v>
+        <v>0.1179352100924387</v>
       </c>
       <c r="G11">
-        <v>0.2535750374360492</v>
+        <v>0.263084409156413</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2">
         <v>15713</v>
@@ -661,21 +661,21 @@
         <v>15724</v>
       </c>
       <c r="D12">
-        <v>31.38399999999999</v>
+        <v>32.77399999999999</v>
       </c>
       <c r="E12" s="3">
         <v>12</v>
       </c>
       <c r="F12">
-        <v>0.0296911576981334</v>
+        <v>0.04520440059593624</v>
       </c>
       <c r="G12">
-        <v>0.1226981335224229</v>
+        <v>0.1527170217466199</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
         <v>15806</v>
@@ -690,15 +690,15 @@
         <v>6</v>
       </c>
       <c r="F13">
-        <v>0.00913220047381649</v>
+        <v>0.02174111392298935</v>
       </c>
       <c r="G13">
-        <v>0.06293596189165684</v>
+        <v>0.1010156860239146</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
         <v>15835</v>
@@ -713,15 +713,15 @@
         <v>14</v>
       </c>
       <c r="F14">
-        <v>0.1993202504546966</v>
+        <v>0.2095329273895829</v>
       </c>
       <c r="G14">
-        <v>0.3629156250756053</v>
+        <v>0.3656043849323991</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2">
         <v>16224</v>
@@ -736,15 +736,15 @@
         <v>90</v>
       </c>
       <c r="F15">
-        <v>0.9456284024958923</v>
+        <v>0.9463424160558729</v>
       </c>
       <c r="G15">
-        <v>0.9419217847061785</v>
+        <v>0.9358732076812244</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2">
         <v>16337</v>
@@ -759,15 +759,15 @@
         <v>47</v>
       </c>
       <c r="F16">
-        <v>0.7633092970484542</v>
+        <v>0.766368736140671</v>
       </c>
       <c r="G16">
-        <v>0.8082980040672831</v>
+        <v>0.7990930593780078</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>16440</v>
@@ -776,21 +776,21 @@
         <v>16485</v>
       </c>
       <c r="D17">
-        <v>837.2021999999999</v>
+        <v>842.7721999999999</v>
       </c>
       <c r="E17" s="3">
         <v>46</v>
       </c>
       <c r="F17">
-        <v>0.8573320838148957</v>
+        <v>0.8610402508598766</v>
       </c>
       <c r="G17">
-        <v>0.8745850242944544</v>
+        <v>0.8675263071703782</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2">
         <v>17893</v>
@@ -799,21 +799,21 @@
         <v>17906</v>
       </c>
       <c r="D18">
-        <v>204.8097</v>
+        <v>210.6097</v>
       </c>
       <c r="E18" s="3">
         <v>14</v>
       </c>
       <c r="F18">
-        <v>0.357720726905165</v>
+        <v>0.3746232256750296</v>
       </c>
       <c r="G18">
-        <v>0.5094681699639111</v>
+        <v>0.5128667026403871</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2">
         <v>17926</v>
@@ -828,15 +828,15 @@
         <v>37</v>
       </c>
       <c r="F19">
-        <v>0.845708817361136</v>
+        <v>0.8477124255725557</v>
       </c>
       <c r="G19">
-        <v>0.8662344930961511</v>
+        <v>0.857627513230046</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2">
         <v>18202</v>
@@ -851,15 +851,15 @@
         <v>59</v>
       </c>
       <c r="F20">
-        <v>0.510284821025109</v>
+        <v>0.516564903498931</v>
       </c>
       <c r="G20">
-        <v>0.6289816493726483</v>
+        <v>0.6218081214841259</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2">
         <v>18853</v>
@@ -874,15 +874,15 @@
         <v>63</v>
       </c>
       <c r="F21">
-        <v>0.9579780579864435</v>
+        <v>0.9585314122382512</v>
       </c>
       <c r="G21">
-        <v>0.9524490365739319</v>
+        <v>0.9470246359349743</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2">
         <v>19050</v>
@@ -897,15 +897,15 @@
         <v>22</v>
       </c>
       <c r="F22">
-        <v>0.1913000863918579</v>
+        <v>0.201613930292547</v>
       </c>
       <c r="G22">
-        <v>0.3544450958504595</v>
+        <v>0.3575825613309696</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2">
         <v>19093</v>
@@ -920,15 +920,15 @@
         <v>57</v>
       </c>
       <c r="F23">
-        <v>0.8565287057870583</v>
+        <v>0.8583932705745925</v>
       </c>
       <c r="G23">
-        <v>0.8740056355910856</v>
+        <v>0.8655502375066387</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2">
         <v>20119</v>
@@ -943,38 +943,38 @@
         <v>26</v>
       </c>
       <c r="F24">
-        <v>0.07448136471492658</v>
+        <v>0.08626755726171384</v>
       </c>
       <c r="G24">
-        <v>0.2067969042203506</v>
+        <v>0.2202251547822148</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2">
         <v>20779</v>
       </c>
       <c r="C25" s="2">
-        <v>20796</v>
+        <v>20799</v>
       </c>
       <c r="D25">
-        <v>290.9009</v>
+        <v>290.9039</v>
       </c>
       <c r="E25" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F25">
-        <v>0.4766729727068997</v>
+        <v>0.4833829082470388</v>
       </c>
       <c r="G25">
-        <v>0.6037836627704034</v>
+        <v>0.5972301663379161</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B26" s="2">
         <v>21856</v>
@@ -983,21 +983,21 @@
         <v>21924</v>
       </c>
       <c r="D26">
-        <v>880.0698</v>
+        <v>890.7997999999999</v>
       </c>
       <c r="E26" s="3">
         <v>69</v>
       </c>
       <c r="F26">
-        <v>0.8711647041920824</v>
+        <v>0.8760464061498708</v>
       </c>
       <c r="G26">
-        <v>0.8846197569814912</v>
+        <v>0.8788370838683695</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="2">
         <v>21941</v>
@@ -1006,21 +1006,21 @@
         <v>21959</v>
       </c>
       <c r="D27">
-        <v>87.87499999999996</v>
+        <v>87.98499999999996</v>
       </c>
       <c r="E27" s="3">
         <v>19</v>
       </c>
       <c r="F27">
-        <v>0.1517133640449581</v>
+        <v>0.1627455635574777</v>
       </c>
       <c r="G27">
-        <v>0.3103036341075024</v>
+        <v>0.3162129933623559</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2">
         <v>23008</v>
@@ -1029,21 +1029,21 @@
         <v>23021</v>
       </c>
       <c r="D28">
-        <v>123.4271</v>
+        <v>127.8371</v>
       </c>
       <c r="E28" s="3">
         <v>14</v>
       </c>
       <c r="F28">
-        <v>0.2205116074940484</v>
+        <v>0.2384896500612426</v>
       </c>
       <c r="G28">
-        <v>0.3846594900792968</v>
+        <v>0.3939700609415303</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B29" s="2">
         <v>23173</v>
@@ -1058,15 +1058,15 @@
         <v>109</v>
       </c>
       <c r="F29">
-        <v>0.981991934849938</v>
+        <v>0.9822312078879346</v>
       </c>
       <c r="G29">
-        <v>0.9750895674191904</v>
+        <v>0.9714236406000107</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B30" s="2">
         <v>23399</v>
@@ -1075,21 +1075,21 @@
         <v>23409</v>
       </c>
       <c r="D30">
-        <v>228.5457</v>
+        <v>229.4356999999999</v>
       </c>
       <c r="E30" s="3">
         <v>11</v>
       </c>
       <c r="F30">
-        <v>0.3929848792680644</v>
+        <v>0.4020186016409867</v>
       </c>
       <c r="G30">
-        <v>0.5384207514093132</v>
+        <v>0.5347767084842264</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2">
         <v>24893</v>
@@ -1104,15 +1104,15 @@
         <v>16</v>
       </c>
       <c r="F31">
-        <v>0.6410498265224109</v>
+        <v>0.6456686202267887</v>
       </c>
       <c r="G31">
-        <v>0.7231342974273985</v>
+        <v>0.7143116924282779</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B32" s="2">
         <v>24990</v>
@@ -1127,15 +1127,15 @@
         <v>6</v>
       </c>
       <c r="F32">
-        <v>0.03202747144381692</v>
+        <v>0.04434821312715596</v>
       </c>
       <c r="G32">
-        <v>0.1280805356504572</v>
+        <v>0.1510749449850388</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2">
         <v>25017</v>
@@ -1150,15 +1150,15 @@
         <v>9</v>
       </c>
       <c r="F33">
-        <v>0.1292975547017991</v>
+        <v>0.140393134887437</v>
       </c>
       <c r="G33">
-        <v>0.2831853918049956</v>
+        <v>0.2905899749593538</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B34" s="2">
         <v>25050</v>
@@ -1173,15 +1173,15 @@
         <v>88</v>
       </c>
       <c r="F34">
-        <v>0.8573230211091631</v>
+        <v>0.8591773739610941</v>
       </c>
       <c r="G34">
-        <v>0.874578486410889</v>
+        <v>0.8661350496529057</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B35" s="2">
         <v>25167</v>
@@ -1190,21 +1190,21 @@
         <v>25194</v>
       </c>
       <c r="D35">
-        <v>275.8666</v>
+        <v>280.7995999999999</v>
       </c>
       <c r="E35" s="3">
         <v>28</v>
       </c>
       <c r="F35">
-        <v>0.4576160458807945</v>
+        <v>0.4708117772471035</v>
       </c>
       <c r="G35">
-        <v>0.5892549557145664</v>
+        <v>0.5877992600460097</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2">
         <v>26254</v>
@@ -1213,21 +1213,21 @@
         <v>26284</v>
       </c>
       <c r="D36">
-        <v>193.4199999999999</v>
+        <v>200.4999999999999</v>
       </c>
       <c r="E36" s="3">
         <v>31</v>
       </c>
       <c r="F36">
-        <v>0.340079044862945</v>
+        <v>0.3593973539238739</v>
       </c>
       <c r="G36">
-        <v>0.4945991680100593</v>
+        <v>0.5004559610380104</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B37" s="2">
         <v>27318</v>
@@ -1242,15 +1242,15 @@
         <v>10</v>
       </c>
       <c r="F37">
-        <v>0.2977731423301494</v>
+        <v>0.3067429719569431</v>
       </c>
       <c r="G37">
-        <v>0.4577218427289564</v>
+        <v>0.4560272848259795</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B38" s="2">
         <v>28536</v>
@@ -1265,15 +1265,15 @@
         <v>16</v>
       </c>
       <c r="F38">
-        <v>0.3609646027657382</v>
+        <v>0.3691357121149368</v>
       </c>
       <c r="G38">
-        <v>0.5121728706348124</v>
+        <v>0.5084140589823396</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B39" s="2">
         <v>28594</v>
@@ -1288,15 +1288,15 @@
         <v>56</v>
       </c>
       <c r="F39">
-        <v>0.6123326743672548</v>
+        <v>0.6173168026638959</v>
       </c>
       <c r="G39">
-        <v>0.7028643651667509</v>
+        <v>0.6943013815596133</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B40" s="2">
         <v>28681</v>
@@ -1311,15 +1311,15 @@
         <v>6</v>
       </c>
       <c r="F40">
-        <v>0.006868694293467731</v>
+        <v>0.01950609334778015</v>
       </c>
       <c r="G40">
-        <v>0.05356790876107358</v>
+        <v>0.09502052864673442</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B41" s="2">
         <v>28876</v>
@@ -1328,21 +1328,21 @@
         <v>28962</v>
       </c>
       <c r="D41">
-        <v>1618.9602</v>
+        <v>1619.850199999999</v>
       </c>
       <c r="E41" s="3">
         <v>87</v>
       </c>
       <c r="F41">
-        <v>0.9777872661513544</v>
+        <v>0.9781281197739695</v>
       </c>
       <c r="G41">
-        <v>0.9708045658414701</v>
+        <v>0.9668001561656335</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B42" s="2">
         <v>29980</v>
@@ -1357,15 +1357,15 @@
         <v>7</v>
       </c>
       <c r="F42">
-        <v>0.2065499202916276</v>
+        <v>0.21667139196255</v>
       </c>
       <c r="G42">
-        <v>0.3704338586839416</v>
+        <v>0.3727331593410775</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B43" s="2">
         <v>30732</v>
@@ -1380,15 +1380,15 @@
         <v>12</v>
       </c>
       <c r="F43">
-        <v>0.1189853168023421</v>
+        <v>0.1302108537797301</v>
       </c>
       <c r="G43">
-        <v>0.2700558149369048</v>
+        <v>0.2783642687063755</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B44" s="2">
         <v>31078</v>
@@ -1403,15 +1403,15 @@
         <v>8</v>
       </c>
       <c r="F44">
-        <v>0.04195159222996678</v>
+        <v>0.05414740028447899</v>
       </c>
       <c r="G44">
-        <v>0.1492645928268142</v>
+        <v>0.1691337916144594</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B45" s="2">
         <v>31276</v>
@@ -1426,15 +1426,15 @@
         <v>16</v>
       </c>
       <c r="F45">
-        <v>0.2656810575134511</v>
+        <v>0.2750562108581678</v>
       </c>
       <c r="G45">
-        <v>0.4283998018646291</v>
+        <v>0.4279465270418922</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B46" s="2">
         <v>31316</v>
@@ -1449,15 +1449,15 @@
         <v>34</v>
       </c>
       <c r="F46">
-        <v>0.8352830445366182</v>
+        <v>0.8374205306847505</v>
       </c>
       <c r="G46">
-        <v>0.8587969425128519</v>
+        <v>0.8500627241847982</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="2">
         <v>31368</v>
@@ -1466,21 +1466,21 @@
         <v>31429</v>
       </c>
       <c r="D47">
-        <v>2220.830699999999</v>
+        <v>2237.000699999999</v>
       </c>
       <c r="E47" s="3">
         <v>62</v>
       </c>
       <c r="F47">
-        <v>0.9946943301726106</v>
+        <v>0.9949632983841513</v>
       </c>
       <c r="G47">
-        <v>0.9899814689985704</v>
+        <v>0.9883349678643587</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B48" s="2">
         <v>31628</v>
@@ -1495,15 +1495,15 @@
         <v>10</v>
       </c>
       <c r="F48">
-        <v>0.08099262195035761</v>
+        <v>0.09269680553925962</v>
       </c>
       <c r="G48">
-        <v>0.2168956556898622</v>
+        <v>0.2294021636871345</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B49" s="2">
         <v>31860</v>
@@ -1518,15 +1518,15 @@
         <v>9</v>
       </c>
       <c r="F49">
-        <v>0.02699116322552361</v>
+        <v>0.03937530095284041</v>
       </c>
       <c r="G49">
-        <v>0.1162448706632621</v>
+        <v>0.1412535805921336</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B50" s="2">
         <v>32149</v>
@@ -1535,21 +1535,21 @@
         <v>32156</v>
       </c>
       <c r="D50">
-        <v>149.3961</v>
+        <v>152.1761</v>
       </c>
       <c r="E50" s="3">
         <v>8</v>
       </c>
       <c r="F50">
-        <v>0.2672124450845761</v>
+        <v>0.2813377846785841</v>
       </c>
       <c r="G50">
-        <v>0.4298290931267204</v>
+        <v>0.4336054083537276</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B51" s="2">
         <v>32230</v>
@@ -1564,15 +1564,15 @@
         <v>8</v>
       </c>
       <c r="F51">
-        <v>0.1149686512798604</v>
+        <v>0.1262448024512031</v>
       </c>
       <c r="G51">
-        <v>0.2648137770155827</v>
+        <v>0.2734957798080916</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B52" s="2">
         <v>32392</v>
@@ -1587,15 +1587,15 @@
         <v>11</v>
       </c>
       <c r="F52">
-        <v>0.07621986771458736</v>
+        <v>0.08798416453397899</v>
       </c>
       <c r="G52">
-        <v>0.2095287686441417</v>
+        <v>0.2227028998119455</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B53" s="2">
         <v>32473</v>
@@ -1604,21 +1604,21 @@
         <v>32496</v>
       </c>
       <c r="D53">
-        <v>398.4058</v>
+        <v>407.3857999999999</v>
       </c>
       <c r="E53" s="3">
         <v>24</v>
       </c>
       <c r="F53">
-        <v>0.5947738532300298</v>
+        <v>0.6084377664107725</v>
       </c>
       <c r="G53">
-        <v>0.6903780281772682</v>
+        <v>0.6880090439417935</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B54" s="2">
         <v>33254</v>
@@ -1627,21 +1627,21 @@
         <v>33264</v>
       </c>
       <c r="D54">
-        <v>255.1968</v>
+        <v>256.0868</v>
       </c>
       <c r="E54" s="3">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>0.4302777432441658</v>
+        <v>0.4387615202930533</v>
       </c>
       <c r="G54">
-        <v>0.5680673812850833</v>
+        <v>0.5634159336421869</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B55" s="2">
         <v>33298</v>
@@ -1656,10 +1656,10 @@
         <v>6</v>
       </c>
       <c r="F55">
-        <v>0.02767611831101933</v>
+        <v>0.04005163417548445</v>
       </c>
       <c r="G55">
-        <v>0.1179073740545302</v>
+        <v>0.1426194928720513</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1667,22 +1667,22 @@
         <v>131</v>
       </c>
       <c r="B56" s="2">
-        <v>34620</v>
+        <v>33971</v>
       </c>
       <c r="C56" s="2">
-        <v>34626</v>
+        <v>33978</v>
       </c>
       <c r="D56">
-        <v>126.224</v>
+        <v>13.33299999999997</v>
       </c>
       <c r="E56" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F56">
-        <v>0.2256811129550983</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.3898346194400232</v>
+        <v>1.44497264362467E-10</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1690,183 +1690,206 @@
         <v>132</v>
       </c>
       <c r="B57" s="2">
-        <v>34956</v>
+        <v>34620</v>
       </c>
       <c r="C57" s="2">
-        <v>34961</v>
+        <v>34626</v>
       </c>
       <c r="D57">
-        <v>18.71480000000001</v>
+        <v>126.224</v>
       </c>
       <c r="E57" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.2355611919497872</v>
       </c>
       <c r="G57">
-        <v>1.98221359088958E-10</v>
+        <v>0.3911651248952221</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B58" s="2">
-        <v>38053</v>
+        <v>34956</v>
       </c>
       <c r="C58" s="2">
-        <v>38058</v>
+        <v>34961</v>
       </c>
       <c r="D58">
-        <v>184.656</v>
+        <v>18.71480000000001</v>
       </c>
       <c r="E58" s="3">
         <v>6</v>
       </c>
       <c r="F58">
-        <v>0.3261751584935229</v>
+        <v>0.01272383526769244</v>
       </c>
       <c r="G58">
-        <v>0.4826794790706862</v>
+        <v>0.07468123593546509</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B59" s="2">
-        <v>38399</v>
+        <v>38053</v>
       </c>
       <c r="C59" s="2">
-        <v>38433</v>
+        <v>38058</v>
       </c>
       <c r="D59">
-        <v>371.783</v>
+        <v>184.656</v>
       </c>
       <c r="E59" s="3">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="F59">
-        <v>0.5682776389402372</v>
+        <v>0.3347860987206638</v>
       </c>
       <c r="G59">
-        <v>0.6713784180556901</v>
+        <v>0.4800009829259068</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B60" s="2">
-        <v>38846</v>
+        <v>38399</v>
       </c>
       <c r="C60" s="2">
-        <v>38961</v>
+        <v>38433</v>
       </c>
       <c r="D60">
-        <v>1785.304799999999</v>
+        <v>371.783</v>
       </c>
       <c r="E60" s="3">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="F60">
-        <v>0.9850468657746091</v>
+        <v>0.573821654545398</v>
       </c>
       <c r="G60">
-        <v>0.9783431514451235</v>
+        <v>0.6633267328229555</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B61" s="2">
-        <v>39903</v>
+        <v>38846</v>
       </c>
       <c r="C61" s="2">
-        <v>39978</v>
+        <v>38961</v>
       </c>
       <c r="D61">
-        <v>477.1855999999999</v>
+        <v>1785.304799999999</v>
       </c>
       <c r="E61" s="3">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F61">
-        <v>0.6640296378983974</v>
+        <v>0.9852459375623601</v>
       </c>
       <c r="G61">
-        <v>0.7392436674590851</v>
+        <v>0.9749966788688409</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B62" s="2">
-        <v>42998</v>
+        <v>39903</v>
       </c>
       <c r="C62" s="2">
-        <v>43007</v>
+        <v>39978</v>
       </c>
       <c r="D62">
-        <v>58.44208333333333</v>
+        <v>477.1855999999999</v>
       </c>
       <c r="E62" s="3">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="F62">
-        <v>0.09018485038928406</v>
+        <v>0.6683558554266977</v>
       </c>
       <c r="G62">
-        <v>0.2305839303185548</v>
+        <v>0.7302566591251649</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B63" s="2">
-        <v>43857</v>
+        <v>42998</v>
       </c>
       <c r="C63" s="2">
-        <v>43989</v>
+        <v>43007</v>
       </c>
       <c r="D63">
-        <v>3469.4015</v>
+        <v>58.44208333333333</v>
       </c>
       <c r="E63" s="3">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="F63">
-        <v>0.9997279192595032</v>
+        <v>0.1017732472967996</v>
       </c>
       <c r="G63">
-        <v>0.9988373738515592</v>
+        <v>0.2419127731803987</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" s="2">
+        <v>43857</v>
+      </c>
+      <c r="C64" s="2">
+        <v>43989</v>
+      </c>
+      <c r="D64">
+        <v>3469.4015</v>
+      </c>
+      <c r="E64" s="3">
+        <v>133</v>
+      </c>
+      <c r="F64">
+        <v>0.9997316942215552</v>
+      </c>
+      <c r="G64">
+        <v>0.9984610031158747</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>163</v>
+      </c>
+      <c r="B65" s="2">
         <v>44124</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C65" s="2">
         <v>44149</v>
       </c>
-      <c r="D64">
+      <c r="D65">
         <v>1266.696129</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E65" s="3">
         <v>26</v>
       </c>
-      <c r="F64">
-        <v>0.9486469040719924</v>
-      </c>
-      <c r="G64">
-        <v>0.9444494748564745</v>
+      <c r="F65">
+        <v>0.9493216895072855</v>
+      </c>
+      <c r="G65">
+        <v>0.9385421136861933</v>
       </c>
     </row>
   </sheetData>

--- a/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
+++ b/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
@@ -431,16 +431,16 @@
         <v>11148</v>
       </c>
       <c r="D2">
-        <v>269.8239</v>
+        <v>271.9639</v>
       </c>
       <c r="E2" s="3">
         <v>29</v>
       </c>
       <c r="F2">
-        <v>0.4568096549801078</v>
+        <v>0.45804002876226</v>
       </c>
       <c r="G2">
-        <v>0.5772092621241911</v>
+        <v>0.5828762139824133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -454,16 +454,16 @@
         <v>11179</v>
       </c>
       <c r="D3">
-        <v>70.85239999999993</v>
+        <v>68.49689999999994</v>
       </c>
       <c r="E3" s="3">
         <v>13</v>
       </c>
       <c r="F3">
-        <v>0.1279093388556816</v>
+        <v>0.1195604737805574</v>
       </c>
       <c r="G3">
-        <v>0.275546683333624</v>
+        <v>0.2635905953472978</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -477,16 +477,16 @@
         <v>12157</v>
       </c>
       <c r="D4">
-        <v>39.55999999999997</v>
+        <v>37.65999999999998</v>
       </c>
       <c r="E4" s="3">
         <v>17</v>
       </c>
       <c r="F4">
-        <v>0.06049734023545527</v>
+        <v>0.05237274429295852</v>
       </c>
       <c r="G4">
-        <v>0.1800906938870794</v>
+        <v>0.1632743186012388</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -506,10 +506,10 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>0.05141352097905617</v>
+        <v>0.04751509751276666</v>
       </c>
       <c r="G5">
-        <v>0.164247821451987</v>
+        <v>0.1543307543571191</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -529,10 +529,10 @@
         <v>41</v>
       </c>
       <c r="F6">
-        <v>0.08874250001092787</v>
+        <v>0.08508086730978642</v>
       </c>
       <c r="G6">
-        <v>0.2237909634266858</v>
+        <v>0.216295781462185</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -546,16 +546,16 @@
         <v>12426</v>
       </c>
       <c r="D7">
-        <v>275.4671999999999</v>
+        <v>276.0971999999999</v>
       </c>
       <c r="E7" s="3">
         <v>27</v>
       </c>
       <c r="F7">
-        <v>0.4640546959680871</v>
+        <v>0.4633559471929567</v>
       </c>
       <c r="G7">
-        <v>0.5827004109968658</v>
+        <v>0.5869832196662743</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -575,10 +575,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>0.01370762977572793</v>
+        <v>0.009566617566617893</v>
       </c>
       <c r="G8">
-        <v>0.07788272153214239</v>
+        <v>0.06115535439638409</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -598,10 +598,10 @@
         <v>18</v>
       </c>
       <c r="F9">
-        <v>0.4873650951241657</v>
+        <v>0.4859768435045474</v>
       </c>
       <c r="G9">
-        <v>0.6002032269490274</v>
+        <v>0.6043041368865711</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -621,10 +621,10 @@
         <v>34</v>
       </c>
       <c r="F10">
-        <v>0.3830513743876297</v>
+        <v>0.3811204956100068</v>
       </c>
       <c r="G10">
-        <v>0.5196626102258637</v>
+        <v>0.5216160344003579</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -644,10 +644,10 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <v>0.1179352100924387</v>
+        <v>0.1144563297993265</v>
       </c>
       <c r="G11">
-        <v>0.263084409156413</v>
+        <v>0.2569812487833567</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -658,19 +658,19 @@
         <v>15713</v>
       </c>
       <c r="C12" s="2">
-        <v>15724</v>
+        <v>15725</v>
       </c>
       <c r="D12">
-        <v>32.77399999999999</v>
+        <v>35.32099999999998</v>
       </c>
       <c r="E12" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>0.04520440059593624</v>
+        <v>0.04707205382487292</v>
       </c>
       <c r="G12">
-        <v>0.1527170217466199</v>
+        <v>0.1534964688492036</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -690,10 +690,10 @@
         <v>6</v>
       </c>
       <c r="F13">
-        <v>0.02174111392298935</v>
+        <v>0.01765206723185632</v>
       </c>
       <c r="G13">
-        <v>0.1010156860239146</v>
+        <v>0.08708849858382685</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -713,10 +713,10 @@
         <v>14</v>
       </c>
       <c r="F14">
-        <v>0.2095329273895829</v>
+        <v>0.206612784894928</v>
       </c>
       <c r="G14">
-        <v>0.3656043849323991</v>
+        <v>0.3628768704276124</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -730,16 +730,16 @@
         <v>16313</v>
       </c>
       <c r="D15">
-        <v>1242.6881</v>
+        <v>1242.4681</v>
       </c>
       <c r="E15" s="3">
         <v>90</v>
       </c>
       <c r="F15">
-        <v>0.9463424160558729</v>
+        <v>0.9464439392916512</v>
       </c>
       <c r="G15">
-        <v>0.9358732076812244</v>
+        <v>0.9412947982970959</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -759,10 +759,10 @@
         <v>47</v>
       </c>
       <c r="F16">
-        <v>0.766368736140671</v>
+        <v>0.7661535286750637</v>
       </c>
       <c r="G16">
-        <v>0.7990930593780078</v>
+        <v>0.8064270449840337</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -776,16 +776,16 @@
         <v>16485</v>
       </c>
       <c r="D17">
-        <v>842.7721999999999</v>
+        <v>853.7292</v>
       </c>
       <c r="E17" s="3">
         <v>46</v>
       </c>
       <c r="F17">
-        <v>0.8610402508598766</v>
+        <v>0.8646592862907867</v>
       </c>
       <c r="G17">
-        <v>0.8675263071703782</v>
+        <v>0.8772936879922512</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -799,16 +799,16 @@
         <v>17906</v>
       </c>
       <c r="D18">
-        <v>210.6097</v>
+        <v>212.3797</v>
       </c>
       <c r="E18" s="3">
         <v>14</v>
       </c>
       <c r="F18">
-        <v>0.3746232256750296</v>
+        <v>0.3752891908510371</v>
       </c>
       <c r="G18">
-        <v>0.5128667026403871</v>
+        <v>0.5168120604093867</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -822,16 +822,16 @@
         <v>17962</v>
       </c>
       <c r="D19">
-        <v>804.2808999999997</v>
+        <v>810.0708999999999</v>
       </c>
       <c r="E19" s="3">
         <v>37</v>
       </c>
       <c r="F19">
-        <v>0.8477124255725557</v>
+        <v>0.8498083819966501</v>
       </c>
       <c r="G19">
-        <v>0.857627513230046</v>
+        <v>0.8663750022384354</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -851,10 +851,10 @@
         <v>59</v>
       </c>
       <c r="F20">
-        <v>0.516564903498931</v>
+        <v>0.5153202516545838</v>
       </c>
       <c r="G20">
-        <v>0.6218081214841259</v>
+        <v>0.6264286283093295</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -874,10 +874,10 @@
         <v>63</v>
       </c>
       <c r="F21">
-        <v>0.9585314122382512</v>
+        <v>0.9586557728405092</v>
       </c>
       <c r="G21">
-        <v>0.9470246359349743</v>
+        <v>0.9519640824439117</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -897,10 +897,10 @@
         <v>22</v>
       </c>
       <c r="F22">
-        <v>0.201613930292547</v>
+        <v>0.19864640183606</v>
       </c>
       <c r="G22">
-        <v>0.3575825613309696</v>
+        <v>0.3545985447139512</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -914,16 +914,16 @@
         <v>19149</v>
       </c>
       <c r="D23">
-        <v>834.8418999999997</v>
+        <v>832.4518999999998</v>
       </c>
       <c r="E23" s="3">
         <v>57</v>
       </c>
       <c r="F23">
-        <v>0.8583932705745925</v>
+        <v>0.8576145789262372</v>
       </c>
       <c r="G23">
-        <v>0.8655502375066387</v>
+        <v>0.8720985269795856</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -937,16 +937,16 @@
         <v>20144</v>
       </c>
       <c r="D24">
-        <v>51.249</v>
+        <v>56.30900000000003</v>
       </c>
       <c r="E24" s="3">
         <v>26</v>
       </c>
       <c r="F24">
-        <v>0.08626755726171384</v>
+        <v>0.09359429113342521</v>
       </c>
       <c r="G24">
-        <v>0.2202251547822148</v>
+        <v>0.2286105580938594</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -966,10 +966,10 @@
         <v>21</v>
       </c>
       <c r="F25">
-        <v>0.4833829082470388</v>
+        <v>0.4819747739470618</v>
       </c>
       <c r="G25">
-        <v>0.5972301663379161</v>
+        <v>0.6012574244781286</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -983,16 +983,16 @@
         <v>21924</v>
       </c>
       <c r="D26">
-        <v>890.7997999999999</v>
+        <v>892.5697999999999</v>
       </c>
       <c r="E26" s="3">
         <v>69</v>
       </c>
       <c r="F26">
-        <v>0.8760464061498708</v>
+        <v>0.87663244507175</v>
       </c>
       <c r="G26">
-        <v>0.8788370838683695</v>
+        <v>0.8861979398376403</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1006,16 +1006,16 @@
         <v>21959</v>
       </c>
       <c r="D27">
-        <v>87.98499999999996</v>
+        <v>93.40499999999997</v>
       </c>
       <c r="E27" s="3">
         <v>19</v>
       </c>
       <c r="F27">
-        <v>0.1627455635574777</v>
+        <v>0.1703364266099255</v>
       </c>
       <c r="G27">
-        <v>0.3162129933623559</v>
+        <v>0.3240571944210835</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1029,16 +1029,16 @@
         <v>23021</v>
       </c>
       <c r="D28">
-        <v>127.8371</v>
+        <v>128.4671</v>
       </c>
       <c r="E28" s="3">
         <v>14</v>
       </c>
       <c r="F28">
-        <v>0.2384896500612426</v>
+        <v>0.2368886045266262</v>
       </c>
       <c r="G28">
-        <v>0.3939700609415303</v>
+        <v>0.3932642794775984</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1052,16 +1052,16 @@
         <v>23281</v>
       </c>
       <c r="D29">
-        <v>1707.1654</v>
+        <v>1706.945400000001</v>
       </c>
       <c r="E29" s="3">
         <v>109</v>
       </c>
       <c r="F29">
-        <v>0.9822312078879346</v>
+        <v>0.9823092619971094</v>
       </c>
       <c r="G29">
-        <v>0.9714236406000107</v>
+        <v>0.9748489543635946</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1075,16 +1075,16 @@
         <v>23409</v>
       </c>
       <c r="D30">
-        <v>229.4356999999999</v>
+        <v>235.0657</v>
       </c>
       <c r="E30" s="3">
         <v>11</v>
       </c>
       <c r="F30">
-        <v>0.4020186016409867</v>
+        <v>0.4081891029290249</v>
       </c>
       <c r="G30">
-        <v>0.5347767084842264</v>
+        <v>0.5435986218744175</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1098,16 +1098,16 @@
         <v>24908</v>
       </c>
       <c r="D31">
-        <v>449.3761</v>
+        <v>449.7261</v>
       </c>
       <c r="E31" s="3">
         <v>16</v>
       </c>
       <c r="F31">
-        <v>0.6456686202267887</v>
+        <v>0.6453029735274951</v>
       </c>
       <c r="G31">
-        <v>0.7143116924282779</v>
+        <v>0.720979679224215</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1127,10 +1127,10 @@
         <v>6</v>
       </c>
       <c r="F32">
-        <v>0.04434821312715596</v>
+        <v>0.04040459017994553</v>
       </c>
       <c r="G32">
-        <v>0.1510749449850388</v>
+        <v>0.1405168579501332</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1144,16 +1144,16 @@
         <v>25025</v>
       </c>
       <c r="D33">
-        <v>76.91200000000001</v>
+        <v>79.05200000000001</v>
       </c>
       <c r="E33" s="3">
         <v>9</v>
       </c>
       <c r="F33">
-        <v>0.140393134887437</v>
+        <v>0.1414461619386668</v>
       </c>
       <c r="G33">
-        <v>0.2905899749593538</v>
+        <v>0.2907183563069555</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1173,10 +1173,10 @@
         <v>88</v>
       </c>
       <c r="F34">
-        <v>0.8591773739610941</v>
+        <v>0.8592095310677524</v>
       </c>
       <c r="G34">
-        <v>0.8661350496529057</v>
+        <v>0.8732721278916666</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1196,10 +1196,10 @@
         <v>28</v>
       </c>
       <c r="F35">
-        <v>0.4708117772471035</v>
+        <v>0.4693404195554657</v>
       </c>
       <c r="G35">
-        <v>0.5877992600460097</v>
+        <v>0.5915896564009838</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1219,10 +1219,10 @@
         <v>31</v>
       </c>
       <c r="F36">
-        <v>0.3593973539238739</v>
+        <v>0.3573375635992956</v>
       </c>
       <c r="G36">
-        <v>0.5004559610380104</v>
+        <v>0.5018585651243066</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1242,10 +1242,10 @@
         <v>10</v>
       </c>
       <c r="F37">
-        <v>0.3067429719569431</v>
+        <v>0.3043891660474654</v>
       </c>
       <c r="G37">
-        <v>0.4560272848259795</v>
+        <v>0.45611347309269</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1259,16 +1259,16 @@
         <v>28551</v>
       </c>
       <c r="D38">
-        <v>206.9379999999999</v>
+        <v>208.2379999999999</v>
       </c>
       <c r="E38" s="3">
         <v>16</v>
       </c>
       <c r="F38">
-        <v>0.3691357121149368</v>
+        <v>0.3690882573342027</v>
       </c>
       <c r="G38">
-        <v>0.5084140589823396</v>
+        <v>0.5116753601084706</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1282,16 +1282,16 @@
         <v>28649</v>
       </c>
       <c r="D39">
-        <v>417.0256</v>
+        <v>414.6356</v>
       </c>
       <c r="E39" s="3">
         <v>56</v>
       </c>
       <c r="F39">
-        <v>0.6173168026638959</v>
+        <v>0.6143431536317181</v>
       </c>
       <c r="G39">
-        <v>0.6943013815596133</v>
+        <v>0.6988514578199306</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1311,10 +1311,10 @@
         <v>6</v>
       </c>
       <c r="F40">
-        <v>0.01950609334778015</v>
+        <v>0.01540260424816425</v>
       </c>
       <c r="G40">
-        <v>0.09502052864673442</v>
+        <v>0.08049853049599281</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1328,16 +1328,16 @@
         <v>28962</v>
       </c>
       <c r="D41">
-        <v>1619.850199999999</v>
+        <v>1625.030199999999</v>
       </c>
       <c r="E41" s="3">
         <v>87</v>
       </c>
       <c r="F41">
-        <v>0.9781281197739695</v>
+        <v>0.9784926874339613</v>
       </c>
       <c r="G41">
-        <v>0.9668001561656335</v>
+        <v>0.970847730816543</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1351,16 +1351,16 @@
         <v>29986</v>
       </c>
       <c r="D42">
-        <v>115.9649999999999</v>
+        <v>120.0149999999999</v>
       </c>
       <c r="E42" s="3">
         <v>7</v>
       </c>
       <c r="F42">
-        <v>0.21667139196255</v>
+        <v>0.2213507974089256</v>
       </c>
       <c r="G42">
-        <v>0.3727331593410775</v>
+        <v>0.3778705038442361</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1374,16 +1374,16 @@
         <v>30743</v>
       </c>
       <c r="D43">
-        <v>71.96299999999999</v>
+        <v>72.19299999999998</v>
       </c>
       <c r="E43" s="3">
         <v>12</v>
       </c>
       <c r="F43">
-        <v>0.1302108537797301</v>
+        <v>0.1272869854855437</v>
       </c>
       <c r="G43">
-        <v>0.2783642687063755</v>
+        <v>0.2733811563545626</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1397,16 +1397,16 @@
         <v>31085</v>
       </c>
       <c r="D44">
-        <v>36.72899999999994</v>
+        <v>39.30899999999995</v>
       </c>
       <c r="E44" s="3">
         <v>8</v>
       </c>
       <c r="F44">
-        <v>0.05414740028447899</v>
+        <v>0.05609201161330182</v>
       </c>
       <c r="G44">
-        <v>0.1691337916144594</v>
+        <v>0.1698899759752903</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1426,10 +1426,10 @@
         <v>16</v>
       </c>
       <c r="F45">
-        <v>0.2750562108581678</v>
+        <v>0.2725210224602952</v>
       </c>
       <c r="G45">
-        <v>0.4279465270418922</v>
+        <v>0.4271756006327106</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1449,10 +1449,10 @@
         <v>34</v>
       </c>
       <c r="F46">
-        <v>0.8374205306847505</v>
+        <v>0.8374046423393088</v>
       </c>
       <c r="G46">
-        <v>0.8500627241847982</v>
+        <v>0.857343342398237</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1466,16 +1466,16 @@
         <v>31429</v>
       </c>
       <c r="D47">
-        <v>2237.000699999999</v>
+        <v>2238.770699999999</v>
       </c>
       <c r="E47" s="3">
         <v>62</v>
       </c>
       <c r="F47">
-        <v>0.9949632983841513</v>
+        <v>0.9950234262999315</v>
       </c>
       <c r="G47">
-        <v>0.9883349678643587</v>
+        <v>0.9902218348448845</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1495,10 +1495,10 @@
         <v>10</v>
       </c>
       <c r="F48">
-        <v>0.09269680553925962</v>
+        <v>0.0890600542264964</v>
       </c>
       <c r="G48">
-        <v>0.2294021636871345</v>
+        <v>0.2221119805304972</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1512,16 +1512,16 @@
         <v>31868</v>
       </c>
       <c r="D49">
-        <v>30.21599999999999</v>
+        <v>28.316</v>
       </c>
       <c r="E49" s="3">
         <v>9</v>
       </c>
       <c r="F49">
-        <v>0.03937530095284041</v>
+        <v>0.03101914735816982</v>
       </c>
       <c r="G49">
-        <v>0.1412535805921336</v>
+        <v>0.1206048044180449</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1535,16 +1535,16 @@
         <v>32156</v>
       </c>
       <c r="D50">
-        <v>152.1761</v>
+        <v>153.3161</v>
       </c>
       <c r="E50" s="3">
         <v>8</v>
       </c>
       <c r="F50">
-        <v>0.2813377846785841</v>
+        <v>0.2807967513021805</v>
       </c>
       <c r="G50">
-        <v>0.4336054083537276</v>
+        <v>0.43480618441167</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1558,16 +1558,16 @@
         <v>32237</v>
       </c>
       <c r="D51">
-        <v>70.05099999999996</v>
+        <v>68.15099999999997</v>
       </c>
       <c r="E51" s="3">
         <v>8</v>
       </c>
       <c r="F51">
-        <v>0.1262448024512031</v>
+        <v>0.1188338960418999</v>
       </c>
       <c r="G51">
-        <v>0.2734957798080916</v>
+        <v>0.2626568688344346</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1587,10 +1587,10 @@
         <v>11</v>
       </c>
       <c r="F52">
-        <v>0.08798416453397899</v>
+        <v>0.08431775572959939</v>
       </c>
       <c r="G52">
-        <v>0.2227028998119455</v>
+        <v>0.2151676641170001</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1610,10 +1610,10 @@
         <v>24</v>
       </c>
       <c r="F53">
-        <v>0.6084377664107725</v>
+        <v>0.6076174198464717</v>
       </c>
       <c r="G53">
-        <v>0.6880090439417935</v>
+        <v>0.6940187550598567</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1627,16 +1627,16 @@
         <v>33264</v>
       </c>
       <c r="D54">
-        <v>256.0868</v>
+        <v>260.2167999999999</v>
       </c>
       <c r="E54" s="3">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>0.4387615202930533</v>
+        <v>0.4426425995888049</v>
       </c>
       <c r="G54">
-        <v>0.5634159336421869</v>
+        <v>0.5708964466324615</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1650,16 +1650,16 @@
         <v>33303</v>
       </c>
       <c r="D55">
-        <v>30.512</v>
+        <v>30.74199999999999</v>
       </c>
       <c r="E55" s="3">
         <v>6</v>
       </c>
       <c r="F55">
-        <v>0.04005163417548445</v>
+        <v>0.0366090357963119</v>
       </c>
       <c r="G55">
-        <v>0.1426194928720513</v>
+        <v>0.132726124003697</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1673,7 +1673,7 @@
         <v>33978</v>
       </c>
       <c r="D56">
-        <v>13.33299999999997</v>
+        <v>15.10299999999997</v>
       </c>
       <c r="E56" s="3">
         <v>8</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1.44497264362467E-10</v>
+        <v>8.601152255421734E-11</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1702,10 +1702,10 @@
         <v>7</v>
       </c>
       <c r="F57">
-        <v>0.2355611919497872</v>
+        <v>0.2327955121519458</v>
       </c>
       <c r="G57">
-        <v>0.3911651248952221</v>
+        <v>0.3892479236072377</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1725,10 +1725,10 @@
         <v>6</v>
       </c>
       <c r="F58">
-        <v>0.01272383526769244</v>
+        <v>0.008576448971767965</v>
       </c>
       <c r="G58">
-        <v>0.07468123593546509</v>
+        <v>0.05741954925827542</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1748,10 +1748,10 @@
         <v>6</v>
       </c>
       <c r="F59">
-        <v>0.3347860987206638</v>
+        <v>0.3325900645390729</v>
       </c>
       <c r="G59">
-        <v>0.4800009829259068</v>
+        <v>0.4808042352211797</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1771,10 +1771,10 @@
         <v>35</v>
       </c>
       <c r="F60">
-        <v>0.573821654545398</v>
+        <v>0.5728466570791497</v>
       </c>
       <c r="G60">
-        <v>0.6633267328229555</v>
+        <v>0.6688585205772312</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1788,21 +1788,21 @@
         <v>38961</v>
       </c>
       <c r="D61">
-        <v>1785.304799999999</v>
+        <v>1785.0848</v>
       </c>
       <c r="E61" s="3">
         <v>116</v>
       </c>
       <c r="F61">
-        <v>0.9852459375623601</v>
+        <v>0.9853169465593568</v>
       </c>
       <c r="G61">
-        <v>0.9749966788688409</v>
+        <v>0.9781396405113658</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B62" s="2">
         <v>39903</v>
@@ -1811,21 +1811,21 @@
         <v>39978</v>
       </c>
       <c r="D62">
-        <v>477.1855999999999</v>
+        <v>477.1820999999999</v>
       </c>
       <c r="E62" s="3">
         <v>76</v>
       </c>
       <c r="F62">
-        <v>0.6683558554266977</v>
+        <v>0.6677835298162741</v>
       </c>
       <c r="G62">
-        <v>0.7302566591251649</v>
+        <v>0.7369478692790009</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B63" s="2">
         <v>42998</v>
@@ -1840,15 +1840,15 @@
         <v>10</v>
       </c>
       <c r="F63">
-        <v>0.1017732472967996</v>
+        <v>0.09819345786042739</v>
       </c>
       <c r="G63">
-        <v>0.2419127731803987</v>
+        <v>0.2350712715233573</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B64" s="2">
         <v>43857</v>
@@ -1857,21 +1857,21 @@
         <v>43989</v>
       </c>
       <c r="D64">
-        <v>3469.4015</v>
+        <v>3468.0515</v>
       </c>
       <c r="E64" s="3">
         <v>133</v>
       </c>
       <c r="F64">
-        <v>0.9997316942215552</v>
+        <v>0.9997346891810318</v>
       </c>
       <c r="G64">
-        <v>0.9984610031158747</v>
+        <v>0.9988337052646454</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B65" s="2">
         <v>44124</v>
@@ -1886,10 +1886,10 @@
         <v>26</v>
       </c>
       <c r="F65">
-        <v>0.9493216895072855</v>
+        <v>0.949450662143377</v>
       </c>
       <c r="G65">
-        <v>0.9385421136861933</v>
+        <v>0.9438747021393331</v>
       </c>
     </row>
   </sheetData>

--- a/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
+++ b/low-flow-index/dados-saida/uniao_da_vitoria.xlsx
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>8.601152255421734E-11</v>
+        <v>8.601152255421734e-11</v>
       </c>
     </row>
     <row r="57" spans="1:7">
